--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE58497B-54EF-4608-A6E1-D5B8F5A764F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ABC074-105F-4784-9FB0-D98B5D5D942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>25th percentile</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Note this is an illustration which uses average speeds, not second best speed</t>
+  </si>
+  <si>
+    <t>50th percentile</t>
   </si>
 </sst>
 </file>
@@ -3968,10 +3971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,7 +4042,7 @@
         <v/>
       </c>
       <c r="I2" s="5" t="str">
-        <f t="shared" ref="I2:I33" si="3">IF(C2&gt;=28,"Y","")</f>
+        <f t="shared" ref="I2:I4" si="3">IF(C2&gt;=28,"Y","")</f>
         <v/>
       </c>
       <c r="J2" s="5" t="str">
@@ -6513,7 +6516,7 @@
         <v/>
       </c>
       <c r="J67" s="5" t="str">
-        <f t="shared" ref="J67:J118" si="11">IF(D67&gt;=26,"Y","")</f>
+        <f t="shared" ref="J67:J117" si="11">IF(D67&gt;=26,"Y","")</f>
         <v/>
       </c>
       <c r="K67" s="5" t="str">
@@ -6623,7 +6626,7 @@
         <v/>
       </c>
       <c r="I70" s="5" t="str">
-        <f t="shared" ref="I70:I118" si="13">IF(C70&gt;=28,"Y","")</f>
+        <f t="shared" ref="I70:I117" si="13">IF(C70&gt;=28,"Y","")</f>
         <v>Y</v>
       </c>
       <c r="J70" s="5" t="str">
@@ -8426,7 +8429,7 @@
         <v>115</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" ref="F118:J118" si="16">COUNT(F$2:F$117)</f>
+        <f t="shared" ref="F118:G118" si="16">COUNT(F$2:F$117)</f>
         <v>8</v>
       </c>
       <c r="G118" s="4">
@@ -8515,6 +8518,30 @@
       <c r="G123" s="1">
         <f>MAX(G$2:G$117)</f>
         <v>2.5800000000000018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>28</v>
+      </c>
+      <c r="E125">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2">
+        <f>FORECAST(D125,$D2:$D117,$C2:$C117)</f>
+        <v>26.076343588135487</v>
+      </c>
+      <c r="E126" s="2">
+        <f>FORECAST(E125,$D2:$D117,$C2:$C117)</f>
+        <v>24.236651472800713</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ABC074-105F-4784-9FB0-D98B5D5D942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A493C9B-3C59-4044-983D-E4AD41FBD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>25th percentile</t>
   </si>
@@ -79,11 +79,17 @@
   <si>
     <t>50th percentile</t>
   </si>
+  <si>
+    <t>persons</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -162,6 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,11 +296,25 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$116</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>24.59</c:v>
@@ -644,7 +668,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$116</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>22.57</c:v>
@@ -1088,7 +1112,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1133,6 +1157,7 @@
         <c:axId val="1230299248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1205,7 +1230,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1407,11 +1432,25 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$116</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>24.59</c:v>
@@ -1765,7 +1804,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$116</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>22.57</c:v>
@@ -2137,8 +2176,8 @@
         <c:axId val="1231959152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="24"/>
+          <c:max val="29"/>
+          <c:min val="27"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2211,7 +2250,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2257,8 +2296,8 @@
         <c:axId val="1230299248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="28"/>
-          <c:min val="22"/>
+          <c:max val="27"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2331,7 +2370,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2422,7 +2461,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3619,61 +3657,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08608</cdr:x>
-      <cdr:y>0.16162</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97131</cdr:x>
-      <cdr:y>0.86644</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE65456D-D23F-9680-9643-B28BB35DD2EB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="571479" y="685800"/>
-          <a:ext cx="5876946" cy="2990841"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3971,16 +3954,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -3991,6 +3974,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4023,21 +4009,21 @@
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>24.59</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>22.57</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f t="shared" ref="E2:E33" si="0">C2-D2</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="1" t="str">
         <f t="shared" ref="F2:F65" si="1">IF($C2&lt;29,IF($C2&gt;28,$E2,""),"")</f>
         <v/>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G65" si="2">IF($C2&lt;27,IF($C2&gt;26,$E2,""),"")</f>
         <v/>
       </c>
@@ -4061,21 +4047,21 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>16.239999999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>16.13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>0.10999999999999943</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4099,21 +4085,21 @@
       <c r="B4">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>25.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>24.91</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>0.48999999999999844</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4137,21 +4123,21 @@
       <c r="B5">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>28.93</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>27.04</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>1.8900000000000006</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>1.8900000000000006</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4175,21 +4161,21 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>21.71</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>19.55</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4213,21 +4199,21 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>19.63</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>18.55</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4251,21 +4237,21 @@
       <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>24.31</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>23.24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>1.0700000000000003</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4289,21 +4275,21 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>10.66</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>9.01</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>1.6500000000000004</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4327,21 +4313,21 @@
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>16.420000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>14.79</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>1.6300000000000026</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4365,21 +4351,21 @@
       <c r="B11">
         <v>33</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>32.659999999999997</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>30.34</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>2.3199999999999967</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4403,21 +4389,21 @@
       <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>29.7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>27.99</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>1.7100000000000009</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4441,21 +4427,21 @@
       <c r="B13">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>27.63</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>26.35</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>1.2799999999999976</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4479,21 +4465,21 @@
       <c r="B14">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>23.49</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>22.69</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4517,21 +4503,21 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>19.55</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4555,21 +4541,21 @@
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>21.81</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>20.05</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>1.759999999999998</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4593,21 +4579,21 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>18.989999999999998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>18.72</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>0.26999999999999957</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4631,21 +4617,21 @@
       <c r="B18">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>27.58</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>25.62</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>1.9599999999999973</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4669,21 +4655,21 @@
       <c r="B19">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>26.84</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>24.81</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>2.0300000000000011</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>2.0300000000000011</v>
       </c>
@@ -4707,21 +4693,21 @@
       <c r="B20">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>28.08</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>25.6</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>2.4799999999999969</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>2.4799999999999969</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4745,21 +4731,21 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>28.65</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>26.13</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4783,21 +4769,21 @@
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>21.66</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>19.45</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>2.2100000000000009</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4821,21 +4807,21 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>22.96</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>22.96</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4859,21 +4845,21 @@
       <c r="B24">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>29</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>27.15</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>1.8500000000000014</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4897,21 +4883,21 @@
       <c r="B25">
         <v>27</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>26.15</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>24.14</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>2.009999999999998</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f t="shared" si="2"/>
         <v>2.009999999999998</v>
       </c>
@@ -4935,21 +4921,21 @@
       <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>24.32</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>22.7</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>1.620000000000001</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4973,21 +4959,21 @@
       <c r="B27">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>20.39</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>18.54</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>1.8500000000000014</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5011,21 +4997,21 @@
       <c r="B28">
         <v>18</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>27.47</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>26.39</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5049,21 +5035,21 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>30.14</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>28.94</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5087,21 +5073,21 @@
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>26.14</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>24.57</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>1.5700000000000003</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <f t="shared" si="2"/>
         <v>1.5700000000000003</v>
       </c>
@@ -5125,21 +5111,21 @@
       <c r="B31">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>29.85</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>28.28</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>1.5700000000000003</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5163,21 +5149,21 @@
       <c r="B32">
         <v>15</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>27.71</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>25.44</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>2.2699999999999996</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5194,28 +5180,28 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20141018</v>
       </c>
       <c r="B33">
         <v>19</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>27.3</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>25.36</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>1.9400000000000013</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5232,28 +5218,28 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20141019</v>
       </c>
       <c r="B34">
         <v>24</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>31.1</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>28.98</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <f t="shared" ref="E34:E65" si="7">C34-D34</f>
         <v>2.120000000000001</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5270,28 +5256,28 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20141019</v>
       </c>
       <c r="B35">
         <v>22</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>30.39</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>28.28</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <f t="shared" si="7"/>
         <v>2.1099999999999994</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5308,28 +5294,28 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20141020</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>30.42</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>29.24</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <f t="shared" si="7"/>
         <v>1.1800000000000033</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5346,28 +5332,28 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20141020</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>30.99</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>28.93</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <f t="shared" si="7"/>
         <v>2.0599999999999987</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5384,28 +5370,28 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20141021</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>31.77</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>29.54</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <f t="shared" si="7"/>
         <v>2.2300000000000004</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5422,28 +5408,28 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20141021</v>
       </c>
       <c r="B39">
         <v>14</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>30.16</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>27.61</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <f t="shared" si="7"/>
         <v>2.5500000000000007</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5460,28 +5446,28 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20141022</v>
       </c>
       <c r="B40">
         <v>15</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>25.27</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>24.43</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <f t="shared" si="7"/>
         <v>0.83999999999999986</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5498,28 +5484,28 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20141022</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>22.12</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>21.97</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <f t="shared" si="7"/>
         <v>0.15000000000000213</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5536,28 +5522,28 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20141023</v>
       </c>
       <c r="B42">
         <v>19</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>30.87</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>28.59</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <f t="shared" si="7"/>
         <v>2.2800000000000011</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5574,28 +5560,28 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20141023</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>28.96</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>27.56</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <f t="shared" si="7"/>
         <v>1.4000000000000021</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <f t="shared" si="1"/>
         <v>1.4000000000000021</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5612,28 +5598,28 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20151003</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>3.67</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>3.67</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5650,28 +5636,28 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20151004</v>
       </c>
       <c r="B45">
         <v>21</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>25.91</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>25.62</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <f t="shared" si="7"/>
         <v>0.28999999999999915</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5688,28 +5674,28 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20151004</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>24.46</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>22.48</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <f t="shared" si="7"/>
         <v>1.9800000000000004</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5726,28 +5712,28 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20151005</v>
       </c>
       <c r="B47">
         <v>25</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>28.62</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>26.35</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <f t="shared" si="7"/>
         <v>2.2699999999999996</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <f t="shared" si="1"/>
         <v>2.2699999999999996</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5764,28 +5750,28 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20151005</v>
       </c>
       <c r="B48">
         <v>24</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>27.53</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>26.21</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <f t="shared" si="7"/>
         <v>1.3200000000000003</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5801,29 +5787,38 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20151006</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>20.95</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>20.07</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <f t="shared" si="7"/>
         <v>0.87999999999999901</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5839,29 +5834,40 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="2">
+        <f>FORECAST(P48,$D2:$D117,$C2:$C117)</f>
+        <v>26.076343588135487</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>FORECAST(Q48,$D2:$D117,$C2:$C117)</f>
+        <v>24.236651472800713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20151006</v>
       </c>
       <c r="B50">
         <v>24</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>24.93</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>23.5</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <f t="shared" si="7"/>
         <v>1.4299999999999997</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5878,28 +5884,28 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20151007</v>
       </c>
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>29.81</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>26.7</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <f t="shared" si="7"/>
         <v>3.1099999999999994</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5916,28 +5922,28 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20151007</v>
       </c>
       <c r="B52">
         <v>26</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>29.88</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>28.97</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <f t="shared" si="7"/>
         <v>0.91000000000000014</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5954,28 +5960,28 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20161008</v>
       </c>
       <c r="B53">
         <v>7</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>19.12</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <f t="shared" si="7"/>
         <v>0.98000000000000043</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5992,28 +5998,28 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20161009</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>20.34</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>17.97</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <f t="shared" si="7"/>
         <v>2.370000000000001</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6030,28 +6036,28 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20161009</v>
       </c>
       <c r="B55">
         <v>13</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>22</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>19.77</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <f t="shared" si="7"/>
         <v>2.2300000000000004</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" t="str">
+      <c r="G55" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6068,28 +6074,28 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20161010</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>18.47</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>18.04</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <f t="shared" si="7"/>
         <v>0.42999999999999972</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" t="str">
+      <c r="G56" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6106,28 +6112,28 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20161011</v>
       </c>
       <c r="B57">
         <v>16</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>25.23</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>22.82</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <f t="shared" si="7"/>
         <v>2.41</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" t="str">
+      <c r="G57" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6144,28 +6150,28 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20161011</v>
       </c>
       <c r="B58">
         <v>13</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>25.59</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>23.5</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <f t="shared" si="7"/>
         <v>2.09</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" t="str">
+      <c r="G58" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6182,28 +6188,28 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20161012</v>
       </c>
       <c r="B59">
         <v>23</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>27.78</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>25.58</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <f t="shared" si="7"/>
         <v>2.2000000000000028</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" t="str">
+      <c r="G59" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6220,28 +6226,28 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20161012</v>
       </c>
       <c r="B60">
         <v>23</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>26.87</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>24.41</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <f t="shared" si="7"/>
         <v>2.4600000000000009</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <f t="shared" si="2"/>
         <v>2.4600000000000009</v>
       </c>
@@ -6258,28 +6264,28 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20161013</v>
       </c>
       <c r="B61">
         <v>12</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>27.2</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>23.88</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <f t="shared" si="7"/>
         <v>3.3200000000000003</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" t="str">
+      <c r="G61" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6296,28 +6302,28 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20161013</v>
       </c>
       <c r="B62">
         <v>24</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>28.49</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>26.7</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <f t="shared" si="7"/>
         <v>1.7899999999999991</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <f t="shared" si="1"/>
         <v>1.7899999999999991</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G62" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6334,28 +6340,28 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20161014</v>
       </c>
       <c r="B63">
         <v>9</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>25.16</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>24.01</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <f t="shared" si="7"/>
         <v>1.1499999999999986</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" t="str">
+      <c r="G63" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6372,28 +6378,28 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20171015</v>
       </c>
       <c r="B64">
         <v>19</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>25.41</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>23.35</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <f t="shared" si="7"/>
         <v>2.0599999999999987</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" t="str">
+      <c r="G64" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6417,21 +6423,21 @@
       <c r="B65">
         <v>23</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>34.25</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>33.25</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" t="str">
+      <c r="G65" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6455,21 +6461,21 @@
       <c r="B66">
         <v>21</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>33.68</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>30.94</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <f t="shared" ref="E66:E97" si="8">C66-D66</f>
         <v>2.7399999999999984</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66" s="1" t="str">
         <f t="shared" ref="F66:F116" si="9">IF($C66&lt;29,IF($C66&gt;28,$E66,""),"")</f>
         <v/>
       </c>
-      <c r="G66" t="str">
+      <c r="G66" s="1" t="str">
         <f t="shared" ref="G66:G116" si="10">IF($C66&lt;27,IF($C66&gt;26,$E66,""),"")</f>
         <v/>
       </c>
@@ -6493,21 +6499,21 @@
       <c r="B67">
         <v>7</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>20.98</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>19.38</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <f t="shared" si="8"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G67" t="str">
+      <c r="G67" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6531,21 +6537,21 @@
       <c r="B68">
         <v>17</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>28.66</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>26.73</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f t="shared" si="8"/>
         <v>1.9299999999999997</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <f t="shared" si="9"/>
         <v>1.9299999999999997</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6569,21 +6575,21 @@
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>21.99</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>21.99</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G69" t="str">
+      <c r="G69" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6607,21 +6613,21 @@
       <c r="B70">
         <v>15</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>34.22</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>30.81</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <f t="shared" si="8"/>
         <v>3.41</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G70" t="str">
+      <c r="G70" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6645,21 +6651,21 @@
       <c r="B71">
         <v>25</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>30.08</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>27.87</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <f t="shared" si="8"/>
         <v>2.2099999999999973</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G71" t="str">
+      <c r="G71" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6683,21 +6689,21 @@
       <c r="B72">
         <v>25</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>29.25</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>26.11</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <f t="shared" si="8"/>
         <v>3.1400000000000006</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G72" t="str">
+      <c r="G72" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6721,21 +6727,21 @@
       <c r="B73">
         <v>18</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>30.25</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>28.12</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <f t="shared" si="8"/>
         <v>2.129999999999999</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G73" t="str">
+      <c r="G73" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6759,21 +6765,21 @@
       <c r="B74">
         <v>9</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>25.58</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>24.05</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <f t="shared" si="8"/>
         <v>1.5299999999999976</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G74" t="str">
+      <c r="G74" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6797,21 +6803,21 @@
       <c r="B75">
         <v>18</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>30.38</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>28.83</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <f t="shared" si="8"/>
         <v>1.5500000000000007</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G75" t="str">
+      <c r="G75" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6835,21 +6841,21 @@
       <c r="B76">
         <v>22</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>26.34</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>24.17</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <f t="shared" si="8"/>
         <v>2.1699999999999982</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <f t="shared" si="10"/>
         <v>2.1699999999999982</v>
       </c>
@@ -6873,21 +6879,21 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>13.06</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>13.06</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G77" t="str">
+      <c r="G77" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6911,21 +6917,21 @@
       <c r="B78">
         <v>6</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>23.68</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>22.28</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <f t="shared" si="8"/>
         <v>1.3999999999999986</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G78" t="str">
+      <c r="G78" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6949,21 +6955,21 @@
       <c r="B79">
         <v>19</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>28.62</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>26.1</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <f t="shared" si="8"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <f t="shared" si="9"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G79" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6987,21 +6993,21 @@
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>19.61</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>17.579999999999998</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <f t="shared" si="8"/>
         <v>2.0300000000000011</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G80" t="str">
+      <c r="G80" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7025,21 +7031,21 @@
       <c r="B81">
         <v>18</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>31.2</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>29.98</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <f t="shared" si="8"/>
         <v>1.2199999999999989</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G81" t="str">
+      <c r="G81" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7063,21 +7069,21 @@
       <c r="B82">
         <v>19</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>30.52</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>29</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <f t="shared" si="8"/>
         <v>1.5199999999999996</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F82" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G82" t="str">
+      <c r="G82" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7101,21 +7107,21 @@
       <c r="B83">
         <v>9</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>33.99</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>31.64</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <f t="shared" si="8"/>
         <v>2.3500000000000014</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G83" t="str">
+      <c r="G83" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7139,21 +7145,21 @@
       <c r="B84">
         <v>9</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>33.549999999999997</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>31.82</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <f t="shared" si="8"/>
         <v>1.7299999999999969</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G84" t="str">
+      <c r="G84" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7177,21 +7183,21 @@
       <c r="B85">
         <v>20</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>32.21</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>30.18</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <f t="shared" si="8"/>
         <v>2.0300000000000011</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G85" t="str">
+      <c r="G85" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7215,21 +7221,21 @@
       <c r="B86">
         <v>19</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>31.44</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>29.46</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <f t="shared" si="8"/>
         <v>1.9800000000000004</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G86" t="str">
+      <c r="G86" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7253,21 +7259,21 @@
       <c r="B87">
         <v>19</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>30.89</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>29.25</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <f t="shared" si="8"/>
         <v>1.6400000000000006</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G87" t="str">
+      <c r="G87" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7291,21 +7297,21 @@
       <c r="B88">
         <v>11</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>32.76</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>31.74</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <f t="shared" si="8"/>
         <v>1.0199999999999996</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G88" t="str">
+      <c r="G88" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7329,21 +7335,21 @@
       <c r="B89">
         <v>18</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>31.82</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>30.5</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <f t="shared" si="8"/>
         <v>1.3200000000000003</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G89" t="str">
+      <c r="G89" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7367,21 +7373,21 @@
       <c r="B90">
         <v>12</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>32.619999999999997</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>29.86</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <f t="shared" si="8"/>
         <v>2.759999999999998</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G90" t="str">
+      <c r="G90" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7405,21 +7411,21 @@
       <c r="B91">
         <v>16</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>36.39</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>33.46</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <f t="shared" si="8"/>
         <v>2.9299999999999997</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G91" t="str">
+      <c r="G91" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7443,21 +7449,21 @@
       <c r="B92">
         <v>17</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>35.47</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>32.950000000000003</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <f t="shared" si="8"/>
         <v>2.519999999999996</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G92" t="str">
+      <c r="G92" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7481,21 +7487,21 @@
       <c r="B93">
         <v>6</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>23.81</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>21.35</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <f t="shared" si="8"/>
         <v>2.4599999999999973</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F93" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G93" t="str">
+      <c r="G93" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7519,21 +7525,21 @@
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>21.88</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <f t="shared" si="8"/>
         <v>1.7099999999999973</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G94" t="str">
+      <c r="G94" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7557,21 +7563,21 @@
       <c r="B95">
         <v>8</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>23.62</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>19.87</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G95" t="str">
+      <c r="G95" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7595,21 +7601,21 @@
       <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>20.77</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>18.77</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G96" t="str">
+      <c r="G96" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7633,21 +7639,21 @@
       <c r="B97">
         <v>9</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>22.82</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>18.25</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <f t="shared" si="8"/>
         <v>4.57</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G97" t="str">
+      <c r="G97" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7671,21 +7677,21 @@
       <c r="B98">
         <v>31</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>30.22</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>26.94</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <f t="shared" ref="E98:E108" si="14">C98-D98</f>
         <v>3.2799999999999976</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G98" t="str">
+      <c r="G98" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7709,21 +7715,21 @@
       <c r="B99">
         <v>34</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>31.98</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>29.89</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <f t="shared" si="14"/>
         <v>2.09</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G99" t="str">
+      <c r="G99" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7747,21 +7753,21 @@
       <c r="B100">
         <v>11</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>26.84</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>24.91</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <f t="shared" si="14"/>
         <v>1.9299999999999997</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <f t="shared" si="10"/>
         <v>1.9299999999999997</v>
       </c>
@@ -7785,21 +7791,21 @@
       <c r="B101">
         <v>21</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>25.77</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>24.63</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <f t="shared" si="14"/>
         <v>1.1400000000000006</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G101" t="str">
+      <c r="G101" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7823,21 +7829,21 @@
       <c r="B102">
         <v>5</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>23.17</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>22.76</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <f t="shared" si="14"/>
         <v>0.41000000000000014</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G102" t="str">
+      <c r="G102" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7861,21 +7867,21 @@
       <c r="B103">
         <v>22</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>27.73</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>26.1</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <f t="shared" si="14"/>
         <v>1.629999999999999</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F103" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G103" t="str">
+      <c r="G103" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7899,21 +7905,21 @@
       <c r="B104">
         <v>11</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>30.55</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>24.05</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F104" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G104" t="str">
+      <c r="G104" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7937,21 +7943,21 @@
       <c r="B105">
         <v>12</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>29.85</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>26.64</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <f t="shared" si="14"/>
         <v>3.2100000000000009</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F105" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G105" t="str">
+      <c r="G105" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7975,21 +7981,21 @@
       <c r="B106">
         <v>8</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>31.19</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>27.46</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <f t="shared" si="14"/>
         <v>3.7300000000000004</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F106" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G106" t="str">
+      <c r="G106" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8013,21 +8019,21 @@
       <c r="B107">
         <v>12</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>31.9</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>28.89</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <f t="shared" si="14"/>
         <v>3.009999999999998</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F107" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G107" t="str">
+      <c r="G107" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8051,21 +8057,21 @@
       <c r="B108">
         <v>17</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>22.8</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>21.88</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <f t="shared" si="14"/>
         <v>0.92000000000000171</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F108" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G108" t="str">
+      <c r="G108" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8089,17 +8095,21 @@
       <c r="B109">
         <v>12</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>23.22</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>22.05</v>
       </c>
-      <c r="F109" t="str">
+      <c r="E109" s="1">
+        <f t="shared" ref="E109:E117" si="15">C109-D109</f>
+        <v>1.1699999999999982</v>
+      </c>
+      <c r="F109" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G109" t="str">
+      <c r="G109" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8123,21 +8133,21 @@
       <c r="B110">
         <v>14</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>25.01</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>24.15</v>
       </c>
-      <c r="E110">
-        <f t="shared" ref="E110:E117" si="15">C110-D110</f>
+      <c r="E110" s="1">
+        <f t="shared" si="15"/>
         <v>0.86000000000000298</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F110" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G110" t="str">
+      <c r="G110" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8161,21 +8171,21 @@
       <c r="B111">
         <v>13</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>23.88</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>22.61</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <f t="shared" si="15"/>
         <v>1.2699999999999996</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F111" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G111" t="str">
+      <c r="G111" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8199,21 +8209,21 @@
       <c r="B112">
         <v>22</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>26.72</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>25.66</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <f t="shared" si="15"/>
         <v>1.0599999999999987</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F112" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <f t="shared" si="10"/>
         <v>1.0599999999999987</v>
       </c>
@@ -8237,21 +8247,21 @@
       <c r="B113">
         <v>25</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>27.6</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>26.44</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <f t="shared" si="15"/>
         <v>1.1600000000000001</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F113" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G113" t="str">
+      <c r="G113" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8275,21 +8285,21 @@
       <c r="B114">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>26.69</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>24.11</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <f t="shared" si="15"/>
         <v>2.5800000000000018</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F114" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <f t="shared" si="10"/>
         <v>2.5800000000000018</v>
       </c>
@@ -8313,21 +8323,21 @@
       <c r="B115">
         <v>14</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>29.08</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>27.13</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="1">
         <f t="shared" si="15"/>
         <v>1.9499999999999993</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F115" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G115" t="str">
+      <c r="G115" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8351,21 +8361,21 @@
       <c r="B116">
         <v>28</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>31.08</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>29.74</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="1">
         <f t="shared" si="15"/>
         <v>1.3399999999999999</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F116" s="1" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G116" t="str">
+      <c r="G116" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8389,21 +8399,21 @@
       <c r="B117">
         <v>28</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>32.39</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>30.06</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="1">
         <f t="shared" si="15"/>
         <v>2.3300000000000018</v>
       </c>
-      <c r="F117" t="str">
+      <c r="F117" s="1" t="str">
         <f>IF($C117&lt;29,IF($C117&gt;28,$E117,""),"")</f>
         <v/>
       </c>
-      <c r="G117" t="str">
+      <c r="G117" s="1" t="str">
         <f>IF($C117&lt;27,IF($C117&gt;26,$E117,""),"")</f>
         <v/>
       </c>
@@ -8426,7 +8436,7 @@
       </c>
       <c r="E118" s="4">
         <f>COUNT(E$2:E$117)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" ref="F118:G118" si="16">COUNT(F$2:F$117)</f>
@@ -8450,18 +8460,22 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+      <c r="A120" t="s">
         <v>4</v>
+      </c>
+      <c r="B120" s="11">
+        <f>MIN(B$2:B$117)</f>
+        <v>1</v>
       </c>
       <c r="E120" s="3">
         <f>MIN(E$2:E$117)</f>
         <v>0</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="9">
         <f>MIN(F$2:F$117)</f>
         <v>1.4000000000000021</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120" s="9">
         <f>MIN(G$2:G$117)</f>
         <v>1.0599999999999987</v>
       </c>
@@ -8470,78 +8484,66 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+      <c r="A121" t="s">
         <v>1</v>
+      </c>
+      <c r="B121" s="12">
+        <f>MEDIAN(B$2:B$117)</f>
+        <v>15.5</v>
       </c>
       <c r="E121" s="3">
         <f>MEDIAN(E$2:E$117)</f>
-        <v>1.8900000000000006</v>
-      </c>
-      <c r="F121" s="2">
+        <v>1.870000000000001</v>
+      </c>
+      <c r="F121" s="10">
         <f>MEDIAN(F$2:F$117)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="10">
         <f>MEDIAN(G$2:G$117)</f>
         <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+      <c r="A122" t="s">
         <v>3</v>
+      </c>
+      <c r="B122" s="12">
+        <f>AVERAGE(B$2:B$117)</f>
+        <v>15.379310344827585</v>
       </c>
       <c r="E122" s="3">
         <f>AVERAGE(E$2:E$117)</f>
-        <v>1.8136521739130436</v>
-      </c>
-      <c r="F122" s="2">
+        <v>1.8081034482758622</v>
+      </c>
+      <c r="F122" s="10">
         <f>AVERAGE(F$2:F$117)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="10">
         <f>AVERAGE(G$2:G$117)</f>
         <v>1.9762499999999998</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
+      <c r="A123" t="s">
         <v>5</v>
+      </c>
+      <c r="B123" s="11">
+        <f>MAX(B$2:B$117)</f>
+        <v>34</v>
       </c>
       <c r="E123" s="3">
         <f>MAX(E$2:E$117)</f>
         <v>6.5</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="9">
         <f>MAX(F$2:F$117)</f>
         <v>2.5199999999999996</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="9">
         <f>MAX(G$2:G$117)</f>
         <v>2.5800000000000018</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1">
-        <v>28</v>
-      </c>
-      <c r="E125">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2">
-        <f>FORECAST(D125,$D2:$D117,$C2:$C117)</f>
-        <v>26.076343588135487</v>
-      </c>
-      <c r="E126" s="2">
-        <f>FORECAST(E125,$D2:$D117,$C2:$C117)</f>
-        <v>24.236651472800713</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A493C9B-3C59-4044-983D-E4AD41FBD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03887C94-061E-45AC-900E-8A72E99405CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>25th percentile</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>persons</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -2464,6 +2470,988 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparison of actual median vs predicted median</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>20101016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20101017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20101018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20101019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20101020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20101021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20101022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20111015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20111016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20111017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20111018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20111019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20111021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20121006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20121007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20121007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20121009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20121009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20121010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20121010</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20121011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20121011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20121012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20121012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20131012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20131013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20131014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20131016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20131017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20131018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20141018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20141018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20141019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20141019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20141020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20141020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20141021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20141021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20141022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20141022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20141023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20141023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20151003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20151004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20151004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20151005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20151005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20151006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20151006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20151007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20151007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20161008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20161009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20161009</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20161010</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20161011</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20161011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20161012</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20161012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20161013</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20161013</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20161014</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20171015</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20171016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20171016</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20171018</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20171019</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20171020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20171020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20181013</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20181013</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20181014</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20181015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20181015</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20181016</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20181016</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20181018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20181018</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20191005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20191006</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20191006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20191007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20191007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20191008</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20191008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20191009</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20191009</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20191010</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20191010</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20191011</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20191011</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20211010</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20211011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20211012</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20211012</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20211014</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20221015</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20221015</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20221016</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20221017</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20221018</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20221018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20221019</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20221019</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20221021</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20221021</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>20231007</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>20231007</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>20231010</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>20231010</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20231011</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20231011</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20231012</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20231012</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>20231013</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20231013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$117</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>-0.36966853148969747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87104605003298552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2252561617997202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10819957823384385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7405118854076207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17276791454054319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5578883646571704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1162129481829961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.63452624034714766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2826216865507121E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34991811382995408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61399945320144766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76216213194443228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97040178185371673</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.33249649117436064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9314693914476706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0008243915182788E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.19932216124131941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.54993127274887499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.54424352561928657</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.79451958252425214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5196805425081443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15381035419712674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.23462838145081832</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6899040804979677E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.53631508928667415</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.80117482242823002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89518584845630755</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20457007912585468</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50194120517984686</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.3695882314119423</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.2451347768318186E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2133633095611032E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.2243340394575455E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93762895230943499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1033166994390271</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.1632255415358088E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.45321107269704441</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86483614929647956</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3023512309487479</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.12630177364088979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60060419650382002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.6489005087960038E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4661346723893516</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.34008854399293753</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2966481438892643</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56598405896818349</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47857111841959465</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24758380890339282</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0412649525134583</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1643458234498247</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3104402674368707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.0603227864033045</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.78726724213116483</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.72978934143471363</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.70837000839682318</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.35951458915708301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.29397745544866538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.62691754297134139</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.4604667420015787</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.17293184360749336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54601921563989464</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.34394229877695182</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4246185514433449</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.36106919568624463</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.23902426331043003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.6558013804038012E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4419312184455109</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.98778606682663295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.11962338808364947</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.1161511602197223</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.5997217887105961E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.19968387141959099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.56442279461613154</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.3793991324076238</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.72615651341527609</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.17739138098762552</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.5466481438892643</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.77883516430610911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.96014902732887464</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.60564434654270016</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.3778526436865093E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.63851079181051773</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.23110450908481184</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.21938597348870204</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.51530130520576378</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2851891773677515</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.90984447157509507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.46603237455881441</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.33385201196486491</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4063610891360554E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.87218860650913399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.27688571521107619</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.1774178555523314</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.65585659120027984</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.0615410094184234</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.1784018361570823</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15266910234831244</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-9.9322161241317986E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.60491312046278622</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1265128703979919</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.27201484743470772</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.3719510351873225</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.1380587948201537</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.5506525120944517</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.77374321303829419</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.58685591173492568</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.37052056751462459</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.82399612428999802</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.32342216945414748</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.76105936567876853</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.73159483493146737</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.76134525259121233</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.0222669583737343E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.83053055424896272</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-5.4467781295318929E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86E2-4D07-8BF1-2FDFF81C4C2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="945801359"/>
+        <c:axId val="1115418911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="945801359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1115418911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1115418911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945801359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2505,6 +3493,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3576,17 +4604,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
@@ -3618,13 +5149,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
@@ -3649,6 +5180,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C02AB2-48F2-4AE1-A217-DF011EF56FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3954,10 +5523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3968,12 +5537,12 @@
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -3992,17 +5561,23 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20101016</v>
       </c>
@@ -4027,20 +5602,28 @@
         <f t="shared" ref="G2:G65" si="2">IF($C2&lt;27,IF($C2&gt;26,$E2,""),"")</f>
         <v/>
       </c>
-      <c r="I2" s="5" t="str">
-        <f t="shared" ref="I2:I4" si="3">IF(C2&gt;=28,"Y","")</f>
-        <v/>
-      </c>
-      <c r="J2" s="5" t="str">
+      <c r="I2" s="1">
+        <f>FORECAST(C2,$D$2:$D$117,$C$2:$C$117)</f>
+        <v>22.939668531489698</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2-I2</f>
+        <v>-0.36966853148969747</v>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f t="shared" ref="L2:L4" si="3">IF(C2&gt;=28,"Y","")</f>
+        <v/>
+      </c>
+      <c r="M2" s="5" t="str">
         <f>IF(D2&gt;=26,"Y","")</f>
         <v/>
       </c>
-      <c r="K2" s="5" t="str">
-        <f>IF(I2&lt;&gt;J2,"Y","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="str">
+        <f>IF(L2&lt;&gt;M2,"Y","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20101017</v>
       </c>
@@ -4065,20 +5648,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I66" si="4">FORECAST(C3,$D$2:$D$117,$C$2:$C$117)</f>
+        <v>15.258953949967013</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J66" si="5">D3-I3</f>
+        <v>0.87104605003298552</v>
+      </c>
+      <c r="L3" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J66" si="4">IF(D3&gt;=26,"Y","")</f>
-        <v/>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K66" si="5">IF(I3&lt;&gt;J3,"Y","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="str">
+        <f t="shared" ref="M3:M66" si="6">IF(D3&gt;=26,"Y","")</f>
+        <v/>
+      </c>
+      <c r="N3" s="5" t="str">
+        <f t="shared" ref="N3:N66" si="7">IF(L3&lt;&gt;M3,"Y","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20101018</v>
       </c>
@@ -4103,20 +5694,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="1">
+        <f t="shared" si="4"/>
+        <v>23.68474383820028</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2252561617997202</v>
+      </c>
+      <c r="L4" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J4" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K4" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N4" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20101019</v>
       </c>
@@ -4141,20 +5740,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>26.931800421766155</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10819957823384385</v>
+      </c>
+      <c r="L5" s="5" t="str">
         <f>IF(C5&gt;=28,"Y","")</f>
         <v>Y</v>
       </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="K5" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20101020</v>
       </c>
@@ -4179,20 +5786,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" ref="I6:I69" si="6">IF(C6&gt;=28,"Y","")</f>
-        <v/>
-      </c>
-      <c r="J6" s="5" t="str">
+      <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K6" s="5" t="str">
+        <v>20.290511885407621</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-0.7405118854076207</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ref="L6:L69" si="8">IF(C6&gt;=28,"Y","")</f>
+        <v/>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20101021</v>
       </c>
@@ -4217,20 +5832,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>18.377232085459458</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17276791454054319</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M7" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K7" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20101022</v>
       </c>
@@ -4255,20 +5878,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>22.682111635342828</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5578883646571704</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M8" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20111015</v>
       </c>
@@ -4293,20 +5924,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>10.126212948182996</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.1162129481829961</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M9" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20111016</v>
       </c>
@@ -4331,20 +5970,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>15.424526240347147</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.63452624034714766</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M10" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20111017</v>
       </c>
@@ -4369,20 +6016,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>30.362826216865507</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.2826216865507121E-2</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M11" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20111018</v>
       </c>
@@ -4407,20 +6062,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>27.640081886170044</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34991811382995408</v>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M12" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20111019</v>
       </c>
@@ -4445,20 +6108,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>25.736000546798554</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61399945320144766</v>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M13" s="5" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K13" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20111021</v>
       </c>
@@ -4483,20 +6154,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>21.927837868055569</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76216213194443228</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M14" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20121006</v>
       </c>
@@ -4521,20 +6200,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>18.579598218146284</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97040178185371673</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M15" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20121007</v>
       </c>
@@ -4559,20 +6246,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>20.382496491174361</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.33249649117436064</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M16" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20121007</v>
       </c>
@@ -4597,20 +6292,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>17.788530608552328</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9314693914476706</v>
+      </c>
+      <c r="L17" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M17" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20121009</v>
       </c>
@@ -4635,20 +6338,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>25.690008243915184</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.0008243915182788E-2</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M18" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20121009</v>
       </c>
@@ -4673,20 +6384,28 @@
         <f t="shared" si="2"/>
         <v>2.0300000000000011</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>25.009322161241318</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.19932216124131941</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M19" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20121010</v>
       </c>
@@ -4711,20 +6430,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>26.149931272748876</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.54993127274887499</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M20" s="5" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N20" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K20" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20121010</v>
       </c>
@@ -4749,20 +6476,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>26.674243525619286</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.54424352561928657</v>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M21" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20121011</v>
       </c>
@@ -4787,20 +6522,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>20.244519582524251</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.79451958252425214</v>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M22" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20121011</v>
       </c>
@@ -4825,20 +6568,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>21.440319457491857</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5196805425081443</v>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M23" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20121012</v>
       </c>
@@ -4863,20 +6614,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>26.996189645802872</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15381035419712674</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M24" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J24" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N24" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20121012</v>
       </c>
@@ -4901,20 +6660,28 @@
         <f t="shared" si="2"/>
         <v>2.009999999999998</v>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>24.374628381450819</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.23462838145081832</v>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M25" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N25" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20131012</v>
       </c>
@@ -4939,20 +6706,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>22.691310095919501</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>8.6899040804979677E-3</v>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M26" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N26" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20131013</v>
       </c>
@@ -4977,20 +6752,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="5" t="str">
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>19.076315089286673</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.53631508928667415</v>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M27" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20131014</v>
       </c>
@@ -5015,20 +6798,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>25.588825177571771</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.80117482242823002</v>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M28" s="5" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K28" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="N28" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20131016</v>
       </c>
@@ -5053,20 +6844,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="5" t="str">
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>28.044814151543694</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89518584845630755</v>
+      </c>
+      <c r="L29" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M29" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J29" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N29" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20131017</v>
       </c>
@@ -5091,20 +6890,28 @@
         <f t="shared" si="2"/>
         <v>1.5700000000000003</v>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>24.365429920874146</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>0.20457007912585468</v>
+      </c>
+      <c r="L30" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M30" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N30" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20131018</v>
       </c>
@@ -5129,20 +6936,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>27.778058794820154</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50194120517984686</v>
+      </c>
+      <c r="L31" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M31" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N31" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20141018</v>
       </c>
@@ -5167,20 +6982,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>25.809588231411944</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.3695882314119423</v>
+      </c>
+      <c r="L32" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M32" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J32" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20141018</v>
       </c>
@@ -5205,20 +7028,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="5" t="str">
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>25.432451347768318</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.2451347768318186E-2</v>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M33" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J33" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20141019</v>
       </c>
@@ -5232,7 +7063,7 @@
         <v>28.98</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E65" si="7">C34-D34</f>
+        <f t="shared" ref="E34:E65" si="9">C34-D34</f>
         <v>2.120000000000001</v>
       </c>
       <c r="F34" s="1" t="str">
@@ -5243,20 +7074,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>28.927866366904389</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2133633095611032E-2</v>
+      </c>
+      <c r="L34" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M34" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J34" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20141019</v>
       </c>
@@ -5270,7 +7109,7 @@
         <v>28.28</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1099999999999994</v>
       </c>
       <c r="F35" s="1" t="str">
@@ -5281,20 +7120,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>28.274775665960544</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2243340394575455E-3</v>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M35" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J35" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N35" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20141020</v>
       </c>
@@ -5308,7 +7155,7 @@
         <v>29.24</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1800000000000033</v>
       </c>
       <c r="F36" s="1" t="str">
@@ -5319,20 +7166,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="5" t="str">
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>28.302371047690563</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.93762895230943499</v>
+      </c>
+      <c r="L36" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M36" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J36" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K36" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N36" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20141020</v>
       </c>
@@ -5346,7 +7201,7 @@
         <v>28.93</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0599999999999987</v>
       </c>
       <c r="F37" s="1" t="str">
@@ -5357,20 +7212,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="5" t="str">
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>28.826683300560973</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1033166994390271</v>
+      </c>
+      <c r="L37" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M37" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J37" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K37" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N37" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20141021</v>
       </c>
@@ -5384,7 +7247,7 @@
         <v>29.54</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2300000000000004</v>
       </c>
       <c r="F38" s="1" t="str">
@@ -5395,20 +7258,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="5" t="str">
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>29.544163225541535</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.1632255415358088E-3</v>
+      </c>
+      <c r="L38" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M38" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J38" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K38" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N38" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20141021</v>
       </c>
@@ -5422,7 +7293,7 @@
         <v>27.61</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5500000000000007</v>
       </c>
       <c r="F39" s="1" t="str">
@@ -5433,20 +7304,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="5" t="str">
+      <c r="I39" s="1">
+        <f t="shared" si="4"/>
+        <v>28.063211072697044</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.45321107269704441</v>
+      </c>
+      <c r="L39" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M39" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J39" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N39" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20141022</v>
       </c>
@@ -5460,7 +7339,7 @@
         <v>24.43</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="F40" s="1" t="str">
@@ -5471,20 +7350,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" s="5" t="str">
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>23.56516385070352</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86483614929647956</v>
+      </c>
+      <c r="L40" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M40" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J40" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K40" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N40" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20141022</v>
       </c>
@@ -5498,7 +7385,7 @@
         <v>21.97</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15000000000000213</v>
       </c>
       <c r="F41" s="1" t="str">
@@ -5509,20 +7396,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" s="5" t="str">
+      <c r="I41" s="1">
+        <f t="shared" si="4"/>
+        <v>20.667648769051251</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3023512309487479</v>
+      </c>
+      <c r="L41" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M41" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J41" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K41" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N41" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20141023</v>
       </c>
@@ -5536,7 +7431,7 @@
         <v>28.59</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2800000000000011</v>
       </c>
       <c r="F42" s="1" t="str">
@@ -5547,20 +7442,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" s="5" t="str">
+      <c r="I42" s="1">
+        <f t="shared" si="4"/>
+        <v>28.71630177364089</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.12630177364088979</v>
+      </c>
+      <c r="L42" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M42" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J42" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K42" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N42" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20141023</v>
       </c>
@@ -5574,7 +7477,7 @@
         <v>27.56</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4000000000000021</v>
       </c>
       <c r="F43" s="1">
@@ -5585,20 +7488,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" s="5" t="str">
+      <c r="I43" s="1">
+        <f t="shared" si="4"/>
+        <v>26.959395803496179</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60060419650382002</v>
+      </c>
+      <c r="L43" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M43" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J43" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K43" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N43" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20151003</v>
       </c>
@@ -5612,7 +7523,7 @@
         <v>3.67</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F44" s="1" t="str">
@@ -5623,20 +7534,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I44" s="5" t="str">
+      <c r="I44" s="1">
+        <f t="shared" si="4"/>
+        <v>3.69648900508796</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.6489005087960038E-2</v>
+      </c>
+      <c r="L44" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M44" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J44" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K44" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N44" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20151004</v>
       </c>
@@ -5650,7 +7569,7 @@
         <v>25.62</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28999999999999915</v>
       </c>
       <c r="F45" s="1" t="str">
@@ -5661,20 +7580,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I45" s="5" t="str">
+      <c r="I45" s="1">
+        <f t="shared" si="4"/>
+        <v>24.153865327610649</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4661346723893516</v>
+      </c>
+      <c r="L45" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M45" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J45" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K45" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N45" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20151004</v>
       </c>
@@ -5688,7 +7615,7 @@
         <v>22.48</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9800000000000004</v>
       </c>
       <c r="F46" s="1" t="str">
@@ -5699,20 +7626,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" s="5" t="str">
+      <c r="I46" s="1">
+        <f t="shared" si="4"/>
+        <v>22.820088543992938</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.34008854399293753</v>
+      </c>
+      <c r="L46" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M46" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J46" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K46" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N46" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20151005</v>
       </c>
@@ -5726,7 +7661,7 @@
         <v>26.35</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2699999999999996</v>
       </c>
       <c r="F47" s="1">
@@ -5737,20 +7672,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" s="5" t="str">
+      <c r="I47" s="1">
+        <f t="shared" si="4"/>
+        <v>26.646648143889266</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.2966481438892643</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M47" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J47" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K47" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N47" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20151005</v>
       </c>
@@ -5764,7 +7707,7 @@
         <v>26.21</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3200000000000003</v>
       </c>
       <c r="F48" s="1" t="str">
@@ -5775,29 +7718,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" s="5" t="str">
+      <c r="I48" s="1">
+        <f t="shared" si="4"/>
+        <v>25.644015941031817</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56598405896818349</v>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M48" s="5" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J48" s="5" t="str">
-        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-      <c r="K48" s="7" t="str">
-        <f t="shared" si="5"/>
+      <c r="N48" s="7" t="str">
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
         <v>0</v>
       </c>
-      <c r="P48" s="1">
+      <c r="R48" s="1">
         <v>28</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="S48" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20151006</v>
       </c>
@@ -5811,7 +7762,7 @@
         <v>20.07</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.87999999999999901</v>
       </c>
       <c r="F49" s="1" t="str">
@@ -5822,31 +7773,39 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="5" t="str">
+      <c r="I49" s="1">
+        <f t="shared" si="4"/>
+        <v>19.591428881580406</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47857111841959465</v>
+      </c>
+      <c r="L49" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M49" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J49" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K49" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N49" t="s">
+      <c r="N49" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P49" t="s">
         <v>13</v>
       </c>
-      <c r="P49" s="2">
-        <f>FORECAST(P48,$D2:$D117,$C2:$C117)</f>
+      <c r="R49" s="2">
+        <f>FORECAST(R48,$D2:$D117,$C2:$C117)</f>
         <v>26.076343588135487</v>
       </c>
-      <c r="Q49" s="2">
-        <f>FORECAST(Q48,$D2:$D117,$C2:$C117)</f>
+      <c r="S49" s="2">
+        <f>FORECAST(S48,$D2:$D117,$C2:$C117)</f>
         <v>24.236651472800713</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20151006</v>
       </c>
@@ -5860,7 +7819,7 @@
         <v>23.5</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4299999999999997</v>
       </c>
       <c r="F50" s="1" t="str">
@@ -5871,20 +7830,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" s="5" t="str">
+      <c r="I50" s="1">
+        <f t="shared" si="4"/>
+        <v>23.252416191096607</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24758380890339282</v>
+      </c>
+      <c r="L50" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M50" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J50" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K50" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N50" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20151007</v>
       </c>
@@ -5898,7 +7865,7 @@
         <v>26.7</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1099999999999994</v>
       </c>
       <c r="F51" s="1" t="str">
@@ -5909,20 +7876,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I51" s="5" t="str">
+      <c r="I51" s="1">
+        <f t="shared" si="4"/>
+        <v>27.741264952513458</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0412649525134583</v>
+      </c>
+      <c r="L51" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M51" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J51" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K51" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N51" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20151007</v>
       </c>
@@ -5936,7 +7911,7 @@
         <v>28.97</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91000000000000014</v>
       </c>
       <c r="F52" s="1" t="str">
@@ -5947,20 +7922,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I52" s="5" t="str">
+      <c r="I52" s="1">
+        <f t="shared" si="4"/>
+        <v>27.805654176550174</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1643458234498247</v>
+      </c>
+      <c r="L52" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M52" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J52" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K52" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N52" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20161008</v>
       </c>
@@ -5974,7 +7957,7 @@
         <v>19.12</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98000000000000043</v>
       </c>
       <c r="F53" s="1" t="str">
@@ -5985,20 +7968,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I53" s="5" t="str">
+      <c r="I53" s="1">
+        <f t="shared" si="4"/>
+        <v>18.80955973256313</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3104402674368707</v>
+      </c>
+      <c r="L53" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M53" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J53" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K53" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N53" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20161009</v>
       </c>
@@ -6012,7 +8003,7 @@
         <v>17.97</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.370000000000001</v>
       </c>
       <c r="F54" s="1" t="str">
@@ -6023,20 +8014,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" s="5" t="str">
+      <c r="I54" s="1">
+        <f t="shared" si="4"/>
+        <v>19.030322786403303</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.0603227864033045</v>
+      </c>
+      <c r="L54" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M54" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J54" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K54" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N54" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20161009</v>
       </c>
@@ -6050,7 +8049,7 @@
         <v>19.77</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2300000000000004</v>
       </c>
       <c r="F55" s="1" t="str">
@@ -6061,20 +8060,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="5" t="str">
+      <c r="I55" s="1">
+        <f t="shared" si="4"/>
+        <v>20.557267242131164</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.78726724213116483</v>
+      </c>
+      <c r="L55" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M55" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J55" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K55" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N55" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20161010</v>
       </c>
@@ -6088,7 +8095,7 @@
         <v>18.04</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="F56" s="1" t="str">
@@ -6099,20 +8106,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="5" t="str">
+      <c r="I56" s="1">
+        <f t="shared" si="4"/>
+        <v>17.310210658565286</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72978934143471363</v>
+      </c>
+      <c r="L56" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M56" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J56" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K56" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N56" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20161011</v>
       </c>
@@ -6126,7 +8141,7 @@
         <v>22.82</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.41</v>
       </c>
       <c r="F57" s="1" t="str">
@@ -6137,20 +8152,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="5" t="str">
+      <c r="I57" s="1">
+        <f t="shared" si="4"/>
+        <v>23.528370008396823</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.70837000839682318</v>
+      </c>
+      <c r="L57" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M57" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J57" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K57" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N57" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20161011</v>
       </c>
@@ -6164,7 +8187,7 @@
         <v>23.5</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.09</v>
       </c>
       <c r="F58" s="1" t="str">
@@ -6175,20 +8198,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="5" t="str">
+      <c r="I58" s="1">
+        <f t="shared" si="4"/>
+        <v>23.859514589157083</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.35951458915708301</v>
+      </c>
+      <c r="L58" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M58" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J58" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K58" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N58" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20161012</v>
       </c>
@@ -6202,7 +8233,7 @@
         <v>25.58</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2000000000000028</v>
       </c>
       <c r="F59" s="1" t="str">
@@ -6213,20 +8244,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="5" t="str">
+      <c r="I59" s="1">
+        <f t="shared" si="4"/>
+        <v>25.873977455448664</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.29397745544866538</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M59" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J59" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K59" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N59" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20161012</v>
       </c>
@@ -6240,7 +8279,7 @@
         <v>24.41</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4600000000000009</v>
       </c>
       <c r="F60" s="1" t="str">
@@ -6251,20 +8290,28 @@
         <f t="shared" si="2"/>
         <v>2.4600000000000009</v>
       </c>
-      <c r="I60" s="5" t="str">
+      <c r="I60" s="1">
+        <f t="shared" si="4"/>
+        <v>25.036917542971342</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.62691754297134139</v>
+      </c>
+      <c r="L60" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M60" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J60" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K60" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N60" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20161013</v>
       </c>
@@ -6278,7 +8325,7 @@
         <v>23.88</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3200000000000003</v>
       </c>
       <c r="F61" s="1" t="str">
@@ -6289,20 +8336,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="5" t="str">
+      <c r="I61" s="1">
+        <f t="shared" si="4"/>
+        <v>25.340466742001578</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.4604667420015787</v>
+      </c>
+      <c r="L61" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M61" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J61" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K61" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N61" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20161013</v>
       </c>
@@ -6316,7 +8371,7 @@
         <v>26.7</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7899999999999991</v>
       </c>
       <c r="F62" s="1">
@@ -6327,20 +8382,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="5" t="str">
+      <c r="I62" s="1">
+        <f t="shared" si="4"/>
+        <v>26.527068156392506</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17293184360749336</v>
+      </c>
+      <c r="L62" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M62" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J62" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N62" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20161014</v>
       </c>
@@ -6354,7 +8417,7 @@
         <v>24.01</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1499999999999986</v>
       </c>
       <c r="F63" s="1" t="str">
@@ -6365,20 +8428,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="5" t="str">
+      <c r="I63" s="1">
+        <f t="shared" si="4"/>
+        <v>23.463980784360107</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54601921563989464</v>
+      </c>
+      <c r="L63" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M63" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J63" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K63" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N63" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20171015</v>
       </c>
@@ -6392,7 +8463,7 @@
         <v>23.35</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0599999999999987</v>
       </c>
       <c r="F64" s="1" t="str">
@@ -6403,20 +8474,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="5" t="str">
+      <c r="I64" s="1">
+        <f t="shared" si="4"/>
+        <v>23.693942298776953</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.34394229877695182</v>
+      </c>
+      <c r="L64" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M64" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J64" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N64" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20171016</v>
       </c>
@@ -6430,7 +8509,7 @@
         <v>33.25</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
@@ -6441,20 +8520,28 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="5" t="str">
+      <c r="I65" s="1">
+        <f t="shared" si="4"/>
+        <v>31.825381448556655</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4246185514433449</v>
+      </c>
+      <c r="L65" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M65" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J65" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K65" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N65" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20171016</v>
       </c>
@@ -6468,31 +8555,39 @@
         <v>30.94</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E97" si="8">C66-D66</f>
+        <f t="shared" ref="E66:E97" si="10">C66-D66</f>
         <v>2.7399999999999984</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F116" si="9">IF($C66&lt;29,IF($C66&gt;28,$E66,""),"")</f>
+        <f t="shared" ref="F66:F116" si="11">IF($C66&lt;29,IF($C66&gt;28,$E66,""),"")</f>
         <v/>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G116" si="10">IF($C66&lt;27,IF($C66&gt;26,$E66,""),"")</f>
-        <v/>
-      </c>
-      <c r="I66" s="5" t="str">
+        <f t="shared" ref="G66:G116" si="12">IF($C66&lt;27,IF($C66&gt;26,$E66,""),"")</f>
+        <v/>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="4"/>
+        <v>31.301069195686246</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.36106919568624463</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="M66" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J66" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Y</v>
-      </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N66" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20171018</v>
       </c>
@@ -6506,31 +8601,39 @@
         <v>19.38</v>
       </c>
       <c r="E67" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="I67:I117" si="13">FORECAST(C67,$D$2:$D$117,$C$2:$C$117)</f>
+        <v>19.619024263310429</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67:J117" si="14">D67-I67</f>
+        <v>-0.23902426331043003</v>
+      </c>
+      <c r="L67" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>1.6000000000000014</v>
-      </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G67" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J67" s="5" t="str">
-        <f t="shared" ref="J67:J117" si="11">IF(D67&gt;=26,"Y","")</f>
-        <v/>
-      </c>
-      <c r="K67" s="5" t="str">
-        <f t="shared" ref="K67:K117" si="12">IF(I67&lt;&gt;J67,"Y","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="M67" s="5" t="str">
+        <f t="shared" ref="M67:M117" si="15">IF(D67&gt;=26,"Y","")</f>
+        <v/>
+      </c>
+      <c r="N67" s="5" t="str">
+        <f t="shared" ref="N67:N117" si="16">IF(L67&lt;&gt;M67,"Y","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20171019</v>
       </c>
@@ -6544,31 +8647,39 @@
         <v>26.73</v>
       </c>
       <c r="E68" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="13"/>
+        <v>26.683441986195962</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="14"/>
+        <v>4.6558013804038012E-2</v>
+      </c>
+      <c r="L68" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="9"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
-      <c r="J68" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M68" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K68" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N68" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20171020</v>
       </c>
@@ -6582,31 +8693,39 @@
         <v>21.99</v>
       </c>
       <c r="E69" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="13"/>
+        <v>20.548068781554488</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="14"/>
+        <v>1.4419312184455109</v>
+      </c>
+      <c r="L69" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G69" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J69" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K69" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="M69" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N69" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20171020</v>
       </c>
@@ -6620,31 +8739,39 @@
         <v>30.81</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.41</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" ref="I70:I117" si="13">IF(C70&gt;=28,"Y","")</f>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="13"/>
+        <v>31.797786066826632</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.98778606682663295</v>
+      </c>
+      <c r="L70" s="5" t="str">
+        <f t="shared" ref="L70:L117" si="17">IF(C70&gt;=28,"Y","")</f>
         <v>Y</v>
       </c>
-      <c r="J70" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M70" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K70" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N70" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20181013</v>
       </c>
@@ -6658,31 +8785,39 @@
         <v>27.87</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2099999999999973</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I71" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I71" s="1">
         <f t="shared" si="13"/>
+        <v>27.98962338808365</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.11962338808364947</v>
+      </c>
+      <c r="L71" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J71" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M71" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K71" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N71" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20181013</v>
       </c>
@@ -6696,31 +8831,39 @@
         <v>26.11</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.1400000000000006</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I72" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I72" s="1">
         <f t="shared" si="13"/>
+        <v>27.226151160219722</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.1161511602197223</v>
+      </c>
+      <c r="L72" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J72" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M72" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K72" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N72" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20181014</v>
       </c>
@@ -6734,31 +8877,39 @@
         <v>28.12</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.129999999999999</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I73" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I73" s="1">
         <f t="shared" si="13"/>
+        <v>28.145997217887107</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.5997217887105961E-2</v>
+      </c>
+      <c r="L73" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J73" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M73" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K73" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N73" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20181015</v>
       </c>
@@ -6772,31 +8923,39 @@
         <v>24.05</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5299999999999976</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I74" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I74" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K74" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23.85031612858041</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="14"/>
+        <v>0.19968387141959099</v>
+      </c>
+      <c r="L74" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M74" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N74" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20181015</v>
       </c>
@@ -6810,31 +8969,39 @@
         <v>28.83</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5500000000000007</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I75" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I75" s="1">
         <f t="shared" si="13"/>
+        <v>28.265577205383867</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="14"/>
+        <v>0.56442279461613154</v>
+      </c>
+      <c r="L75" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J75" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M75" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K75" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N75" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20181016</v>
       </c>
@@ -6848,31 +9015,39 @@
         <v>24.17</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="8"/>
-        <v>2.1699999999999982</v>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G76" s="1">
         <f t="shared" si="10"/>
         <v>2.1699999999999982</v>
       </c>
-      <c r="I76" s="5" t="str">
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="12"/>
+        <v>2.1699999999999982</v>
+      </c>
+      <c r="I76" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K76" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24.549399132407626</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.3793991324076238</v>
+      </c>
+      <c r="L76" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M76" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N76" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20181016</v>
       </c>
@@ -6886,31 +9061,39 @@
         <v>13.06</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I77" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I77" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J77" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K77" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12.333843486584724</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="14"/>
+        <v>0.72615651341527609</v>
+      </c>
+      <c r="L77" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M77" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N77" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20181018</v>
       </c>
@@ -6924,31 +9107,39 @@
         <v>22.28</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I78" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I78" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J78" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K78" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22.102608619012376</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="14"/>
+        <v>0.17739138098762552</v>
+      </c>
+      <c r="L78" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M78" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N78" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20181018</v>
       </c>
@@ -6962,31 +9153,39 @@
         <v>26.1</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5199999999999996</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5199999999999996</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I79" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I79" s="1">
         <f t="shared" si="13"/>
+        <v>26.646648143889266</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.5466481438892643</v>
+      </c>
+      <c r="L79" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J79" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M79" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K79" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N79" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20191005</v>
       </c>
@@ -7000,31 +9199,39 @@
         <v>17.579999999999998</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0300000000000011</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I80" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I80" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J80" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K80" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18.358835164306107</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.77883516430610911</v>
+      </c>
+      <c r="L80" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M80" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N80" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20191006</v>
       </c>
@@ -7038,31 +9245,39 @@
         <v>29.98</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2199999999999989</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I81" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I81" s="1">
         <f t="shared" si="13"/>
+        <v>29.019850972671126</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96014902732887464</v>
+      </c>
+      <c r="L81" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J81" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M81" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K81" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N81" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20191006</v>
       </c>
@@ -7076,31 +9291,39 @@
         <v>29</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I82" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I82" s="1">
         <f t="shared" si="13"/>
+        <v>28.3943556534573</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="14"/>
+        <v>0.60564434654270016</v>
+      </c>
+      <c r="L82" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J82" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M82" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K82" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N82" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20191007</v>
       </c>
@@ -7114,31 +9337,39 @@
         <v>31.64</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3500000000000014</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I83" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I83" s="1">
         <f t="shared" si="13"/>
+        <v>31.586221473563135</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="14"/>
+        <v>5.3778526436865093E-2</v>
+      </c>
+      <c r="L83" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J83" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M83" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K83" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N83" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20191007</v>
       </c>
@@ -7152,31 +9383,39 @@
         <v>31.82</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7299999999999969</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I84" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I84" s="1">
         <f t="shared" si="13"/>
+        <v>31.181489208189483</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="14"/>
+        <v>0.63851079181051773</v>
+      </c>
+      <c r="L84" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J84" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M84" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K84" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N84" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20191008</v>
       </c>
@@ -7190,31 +9429,39 @@
         <v>30.18</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0300000000000011</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I85" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I85" s="1">
         <f t="shared" si="13"/>
+        <v>29.948895490915188</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="14"/>
+        <v>0.23110450908481184</v>
+      </c>
+      <c r="L85" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J85" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M85" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K85" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N85" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20191008</v>
       </c>
@@ -7228,31 +9475,39 @@
         <v>29.46</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9800000000000004</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I86" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I86" s="1">
         <f t="shared" si="13"/>
+        <v>29.240614026511299</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="14"/>
+        <v>0.21938597348870204</v>
+      </c>
+      <c r="L86" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J86" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M86" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K86" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N86" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20191009</v>
       </c>
@@ -7266,31 +9521,39 @@
         <v>29.25</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6400000000000006</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I87" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I87" s="1">
         <f t="shared" si="13"/>
+        <v>28.734698694794236</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="14"/>
+        <v>0.51530130520576378</v>
+      </c>
+      <c r="L87" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J87" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M87" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K87" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N87" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20191009</v>
       </c>
@@ -7304,31 +9567,39 @@
         <v>31.74</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0199999999999996</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I88" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I88" s="1">
         <f t="shared" si="13"/>
+        <v>30.454810822632247</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="14"/>
+        <v>1.2851891773677515</v>
+      </c>
+      <c r="L88" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J88" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M88" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K88" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N88" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20191010</v>
       </c>
@@ -7342,31 +9613,39 @@
         <v>30.5</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3200000000000003</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I89" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I89" s="1">
         <f t="shared" si="13"/>
+        <v>29.590155528424905</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="14"/>
+        <v>0.90984447157509507</v>
+      </c>
+      <c r="L89" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J89" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M89" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K89" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N89" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20191010</v>
       </c>
@@ -7380,31 +9659,39 @@
         <v>29.86</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.759999999999998</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I90" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I90" s="1">
         <f t="shared" si="13"/>
+        <v>30.326032374558814</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.46603237455881441</v>
+      </c>
+      <c r="L90" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J90" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M90" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K90" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N90" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20191011</v>
       </c>
@@ -7418,31 +9705,39 @@
         <v>33.46</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.9299999999999997</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I91" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I91" s="1">
         <f t="shared" si="13"/>
+        <v>33.793852011964866</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.33385201196486491</v>
+      </c>
+      <c r="L91" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J91" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M91" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K91" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N91" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20191011</v>
       </c>
@@ -7456,31 +9751,39 @@
         <v>32.950000000000003</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.519999999999996</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I92" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I92" s="1">
         <f t="shared" si="13"/>
+        <v>32.947593638910867</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="14"/>
+        <v>2.4063610891360554E-3</v>
+      </c>
+      <c r="L92" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J92" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M92" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K92" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N92" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20211010</v>
       </c>
@@ -7494,31 +9797,39 @@
         <v>21.35</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4599999999999973</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I93" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I93" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J93" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K93" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22.222188606509135</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.87218860650913399</v>
+      </c>
+      <c r="L93" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M93" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N93" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20211011</v>
       </c>
@@ -7532,31 +9843,39 @@
         <v>20.170000000000002</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7099999999999973</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I94" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I94" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J94" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K94" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20.446885715211078</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.27688571521107619</v>
+      </c>
+      <c r="L94" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M94" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N94" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20211012</v>
       </c>
@@ -7570,31 +9889,39 @@
         <v>19.87</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.75</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I95" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I95" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J95" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K95" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22.047417855552332</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.1774178555523314</v>
+      </c>
+      <c r="L95" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M95" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N95" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20211012</v>
       </c>
@@ -7608,31 +9935,39 @@
         <v>18.77</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I96" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I96" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J96" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K96" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19.425856591200279</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.65585659120027984</v>
+      </c>
+      <c r="L96" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M96" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N96" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20211014</v>
       </c>
@@ -7646,31 +9981,39 @@
         <v>18.25</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.57</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I97" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I97" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J97" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K97" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21.311541009418423</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.0615410094184234</v>
+      </c>
+      <c r="L97" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M97" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N97" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20221015</v>
       </c>
@@ -7684,31 +10027,39 @@
         <v>26.94</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ref="E98:E108" si="14">C98-D98</f>
+        <f t="shared" ref="E98:E108" si="18">C98-D98</f>
         <v>3.2799999999999976</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I98" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I98" s="1">
         <f t="shared" si="13"/>
+        <v>28.118401836157084</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.1784018361570823</v>
+      </c>
+      <c r="L98" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J98" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M98" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K98" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N98" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20221015</v>
       </c>
@@ -7722,31 +10073,39 @@
         <v>29.89</v>
       </c>
       <c r="E99" s="1">
+        <f t="shared" si="18"/>
+        <v>2.09</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="13"/>
+        <v>29.737330897651688</v>
+      </c>
+      <c r="J99" s="1">
         <f t="shared" si="14"/>
-        <v>2.09</v>
-      </c>
-      <c r="F99" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G99" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="13"/>
+        <v>0.15266910234831244</v>
+      </c>
+      <c r="L99" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J99" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M99" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K99" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N99" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20221016</v>
       </c>
@@ -7760,31 +10119,39 @@
         <v>24.91</v>
       </c>
       <c r="E100" s="1">
+        <f t="shared" si="18"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="13"/>
+        <v>25.009322161241318</v>
+      </c>
+      <c r="J100" s="1">
         <f t="shared" si="14"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="F100" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J100" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K100" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-9.9322161241317986E-2</v>
+      </c>
+      <c r="L100" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M100" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N100" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20221017</v>
       </c>
@@ -7798,31 +10165,39 @@
         <v>24.63</v>
       </c>
       <c r="E101" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="13"/>
+        <v>24.025086879537213</v>
+      </c>
+      <c r="J101" s="1">
         <f t="shared" si="14"/>
-        <v>1.1400000000000006</v>
-      </c>
-      <c r="F101" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G101" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J101" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K101" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.60491312046278622</v>
+      </c>
+      <c r="L101" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M101" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N101" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20221018</v>
       </c>
@@ -7836,31 +10211,39 @@
         <v>22.76</v>
       </c>
       <c r="E102" s="1">
+        <f t="shared" si="18"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="13"/>
+        <v>21.63348712960201</v>
+      </c>
+      <c r="J102" s="1">
         <f t="shared" si="14"/>
-        <v>0.41000000000000014</v>
-      </c>
-      <c r="F102" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G102" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J102" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K102" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.1265128703979919</v>
+      </c>
+      <c r="L102" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M102" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N102" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20221018</v>
       </c>
@@ -7874,31 +10257,39 @@
         <v>26.1</v>
       </c>
       <c r="E103" s="1">
+        <f t="shared" si="18"/>
+        <v>1.629999999999999</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="13"/>
+        <v>25.827985152565294</v>
+      </c>
+      <c r="J103" s="1">
         <f t="shared" si="14"/>
-        <v>1.629999999999999</v>
-      </c>
-      <c r="F103" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G103" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J103" s="5" t="str">
-        <f t="shared" si="11"/>
+        <v>0.27201484743470772</v>
+      </c>
+      <c r="L103" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M103" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K103" s="7" t="str">
-        <f t="shared" si="12"/>
+      <c r="N103" s="7" t="str">
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20221019</v>
       </c>
@@ -7912,31 +10303,39 @@
         <v>24.05</v>
       </c>
       <c r="E104" s="1">
+        <f t="shared" si="18"/>
+        <v>6.5</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="13"/>
+        <v>28.421951035187323</v>
+      </c>
+      <c r="J104" s="1">
         <f t="shared" si="14"/>
-        <v>6.5</v>
-      </c>
-      <c r="F104" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G104" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I104" s="5" t="str">
-        <f t="shared" si="13"/>
+        <v>-4.3719510351873225</v>
+      </c>
+      <c r="L104" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J104" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K104" s="8" t="str">
-        <f t="shared" si="12"/>
+      <c r="M104" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N104" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20221019</v>
       </c>
@@ -7950,31 +10349,39 @@
         <v>26.64</v>
       </c>
       <c r="E105" s="1">
+        <f t="shared" si="18"/>
+        <v>3.2100000000000009</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="13"/>
+        <v>27.778058794820154</v>
+      </c>
+      <c r="J105" s="1">
         <f t="shared" si="14"/>
-        <v>3.2100000000000009</v>
-      </c>
-      <c r="F105" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G105" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I105" s="5" t="str">
-        <f t="shared" si="13"/>
+        <v>-1.1380587948201537</v>
+      </c>
+      <c r="L105" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J105" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M105" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K105" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N105" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20221021</v>
       </c>
@@ -7988,31 +10395,39 @@
         <v>27.46</v>
       </c>
       <c r="E106" s="1">
+        <f t="shared" si="18"/>
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="13"/>
+        <v>29.010652512094453</v>
+      </c>
+      <c r="J106" s="1">
         <f t="shared" si="14"/>
-        <v>3.7300000000000004</v>
-      </c>
-      <c r="F106" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G106" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I106" s="5" t="str">
-        <f t="shared" si="13"/>
+        <v>-1.5506525120944517</v>
+      </c>
+      <c r="L106" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J106" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M106" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K106" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N106" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20221021</v>
       </c>
@@ -8026,31 +10441,39 @@
         <v>28.89</v>
       </c>
       <c r="E107" s="1">
+        <f t="shared" si="18"/>
+        <v>3.009999999999998</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="13"/>
+        <v>29.663743213038295</v>
+      </c>
+      <c r="J107" s="1">
         <f t="shared" si="14"/>
-        <v>3.009999999999998</v>
-      </c>
-      <c r="F107" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G107" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I107" s="5" t="str">
-        <f t="shared" si="13"/>
+        <v>-0.77374321303829419</v>
+      </c>
+      <c r="L107" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J107" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M107" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K107" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N107" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20231007</v>
       </c>
@@ -8064,31 +10487,39 @@
         <v>21.88</v>
       </c>
       <c r="E108" s="1">
+        <f t="shared" si="18"/>
+        <v>0.92000000000000171</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="13"/>
+        <v>21.293144088265073</v>
+      </c>
+      <c r="J108" s="1">
         <f t="shared" si="14"/>
-        <v>0.92000000000000171</v>
-      </c>
-      <c r="F108" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G108" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I108" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J108" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K108" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.58685591173492568</v>
+      </c>
+      <c r="L108" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M108" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N108" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20231007</v>
       </c>
@@ -8102,31 +10533,39 @@
         <v>22.05</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" ref="E109:E117" si="15">C109-D109</f>
+        <f t="shared" ref="E109:E117" si="19">C109-D109</f>
         <v>1.1699999999999982</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I109" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I109" s="1">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J109" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K109" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21.679479432485376</v>
+      </c>
+      <c r="J109" s="1">
+        <f t="shared" si="14"/>
+        <v>0.37052056751462459</v>
+      </c>
+      <c r="L109" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M109" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N109" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20231010</v>
       </c>
@@ -8140,31 +10579,39 @@
         <v>24.15</v>
       </c>
       <c r="E110" s="1">
+        <f t="shared" si="19"/>
+        <v>0.86000000000000298</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="13"/>
+        <v>23.326003875710001</v>
+      </c>
+      <c r="J110" s="1">
+        <f t="shared" si="14"/>
+        <v>0.82399612428999802</v>
+      </c>
+      <c r="L110" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M110" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>0.86000000000000298</v>
-      </c>
-      <c r="F110" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G110" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I110" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J110" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K110" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N110" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20231010</v>
       </c>
@@ -8178,31 +10625,39 @@
         <v>22.61</v>
       </c>
       <c r="E111" s="1">
+        <f t="shared" si="19"/>
+        <v>1.2699999999999996</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G111" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="13"/>
+        <v>22.286577830545852</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32342216945414748</v>
+      </c>
+      <c r="L111" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M111" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>1.2699999999999996</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G111" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I111" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J111" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K111" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N111" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20231011</v>
       </c>
@@ -8216,31 +10671,39 @@
         <v>25.66</v>
       </c>
       <c r="E112" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0599999999999987</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="12"/>
+        <v>1.0599999999999987</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="13"/>
+        <v>24.898940634321232</v>
+      </c>
+      <c r="J112" s="1">
+        <f t="shared" si="14"/>
+        <v>0.76105936567876853</v>
+      </c>
+      <c r="L112" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M112" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>1.0599999999999987</v>
-      </c>
-      <c r="F112" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G112" s="1">
-        <f t="shared" si="10"/>
-        <v>1.0599999999999987</v>
-      </c>
-      <c r="I112" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J112" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K112" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N112" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20231011</v>
       </c>
@@ -8254,31 +10717,39 @@
         <v>26.44</v>
       </c>
       <c r="E113" s="1">
+        <f t="shared" si="19"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G113" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="13"/>
+        <v>25.708405165068534</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="14"/>
+        <v>0.73159483493146737</v>
+      </c>
+      <c r="L113" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M113" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>1.1600000000000001</v>
-      </c>
-      <c r="F113" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G113" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I113" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J113" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="K113" s="7" t="str">
-        <f t="shared" si="12"/>
+      <c r="N113" s="7" t="str">
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20231012</v>
       </c>
@@ -8292,31 +10763,39 @@
         <v>24.11</v>
       </c>
       <c r="E114" s="1">
+        <f t="shared" si="19"/>
+        <v>2.5800000000000018</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5800000000000018</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="13"/>
+        <v>24.871345252591212</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.76134525259121233</v>
+      </c>
+      <c r="L114" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M114" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>2.5800000000000018</v>
-      </c>
-      <c r="F114" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G114" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5800000000000018</v>
-      </c>
-      <c r="I114" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J114" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K114" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N114" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20231012</v>
       </c>
@@ -8330,31 +10809,39 @@
         <v>27.13</v>
       </c>
       <c r="E115" s="1">
+        <f t="shared" si="19"/>
+        <v>1.9499999999999993</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="13"/>
+        <v>27.069777330416262</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="14"/>
+        <v>6.0222669583737343E-2</v>
+      </c>
+      <c r="L115" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>Y</v>
+      </c>
+      <c r="M115" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>1.9499999999999993</v>
-      </c>
-      <c r="F115" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G115" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I115" s="5" t="str">
-        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
-      <c r="J115" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
-      <c r="K115" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N115" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20231013</v>
       </c>
@@ -8368,31 +10855,39 @@
         <v>29.74</v>
       </c>
       <c r="E116" s="1">
+        <f t="shared" si="19"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="13"/>
+        <v>28.909469445751036</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" si="14"/>
+        <v>0.83053055424896272</v>
+      </c>
+      <c r="L116" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>Y</v>
+      </c>
+      <c r="M116" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="F116" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G116" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I116" s="5" t="str">
-        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
-      <c r="J116" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
-      <c r="K116" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N116" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20231013</v>
       </c>
@@ -8406,7 +10901,7 @@
         <v>30.06</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2.3300000000000018</v>
       </c>
       <c r="F117" s="1" t="str">
@@ -8417,139 +10912,192 @@
         <f>IF($C117&lt;27,IF($C117&gt;26,$E117,""),"")</f>
         <v/>
       </c>
-      <c r="I117" s="5" t="str">
+      <c r="I117" s="1">
         <f t="shared" si="13"/>
+        <v>30.114467781295318</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="14"/>
+        <v>-5.4467781295318929E-2</v>
+      </c>
+      <c r="L117" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
-      <c r="J117" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M117" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>Y</v>
       </c>
-      <c r="K117" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+      <c r="N117" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E119" s="4">
         <f>COUNT(E$2:E$117)</f>
         <v>116</v>
       </c>
-      <c r="F118" s="4">
-        <f t="shared" ref="F118:G118" si="16">COUNT(F$2:F$117)</f>
+      <c r="F119" s="4">
+        <f t="shared" ref="F119:I119" si="20">COUNT(F$2:F$117)</f>
         <v>8</v>
       </c>
-      <c r="G118" s="4">
-        <f t="shared" si="16"/>
+      <c r="G119" s="4">
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
-      <c r="I118" s="4">
-        <f>COUNTIF(I$2:I$117,"Y")</f>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4">
+        <f t="shared" si="20"/>
+        <v>116</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="L119" s="4">
+        <f>COUNTIF(L$2:L$117,"Y")</f>
         <v>50</v>
       </c>
-      <c r="J118" s="4">
-        <f>COUNTIF(J$2:J$117,"Y")</f>
+      <c r="M119" s="4">
+        <f>COUNTIF(M$2:M$117,"Y")</f>
         <v>53</v>
       </c>
-      <c r="K118" s="4">
-        <f>COUNTIF(K$2:K$117,"Y")</f>
+      <c r="N119" s="4">
+        <f>COUNTIF(N$2:N$117,"Y")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="11">
+      <c r="B121" s="11">
         <f>MIN(B$2:B$117)</f>
         <v>1</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E121" s="3">
         <f>MIN(E$2:E$117)</f>
         <v>0</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F121" s="9">
         <f>MIN(F$2:F$117)</f>
         <v>1.4000000000000021</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G121" s="9">
         <f>MIN(G$2:G$117)</f>
         <v>1.0599999999999987</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I121" s="3"/>
+      <c r="J121" s="9">
+        <f>MIN(J$2:J$117)</f>
+        <v>-4.3719510351873225</v>
+      </c>
+      <c r="L121" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B122" s="12">
         <f>MEDIAN(B$2:B$117)</f>
         <v>15.5</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E122" s="3">
         <f>MEDIAN(E$2:E$117)</f>
         <v>1.870000000000001</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F122" s="10">
         <f>MEDIAN(F$2:F$117)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G122" s="10">
         <f>MEDIAN(G$2:G$117)</f>
         <v>2.0199999999999996</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="I122" s="3"/>
+      <c r="J122" s="9">
+        <f>MEDIAN(J$2:J$117)</f>
+        <v>4.9345823449824522E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B123" s="12">
         <f>AVERAGE(B$2:B$117)</f>
         <v>15.379310344827585</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E123" s="3">
         <f>AVERAGE(E$2:E$117)</f>
         <v>1.8081034482758622</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F123" s="10">
         <f>AVERAGE(F$2:F$117)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G123" s="10">
         <f>AVERAGE(G$2:G$117)</f>
         <v>1.9762499999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="I123" s="3"/>
+      <c r="J123" s="9">
+        <f>AVERAGE(J$2:J$117)</f>
+        <v>5.9875476224611889E-15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B124" s="11">
         <f>MAX(B$2:B$117)</f>
         <v>34</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E124" s="3">
         <f>MAX(E$2:E$117)</f>
         <v>6.5</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F124" s="9">
         <f>MAX(F$2:F$117)</f>
         <v>2.5199999999999996</v>
       </c>
-      <c r="G123" s="9">
+      <c r="G124" s="9">
         <f>MAX(G$2:G$117)</f>
         <v>2.5800000000000018</v>
       </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="9">
+        <f>MAX(J$2:J$117)</f>
+        <v>1.5196805425081443</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:K117">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:N117">
     <sortCondition ref="A98:A117"/>
   </sortState>
+  <conditionalFormatting sqref="J2:J117">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03887C94-061E-45AC-900E-8A72E99405CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB910AE-2035-459C-A137-6F47EAFC697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$117</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5523,10 +5526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:Y124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,11 +5598,11 @@
         <v>2.0199999999999996</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F65" si="1">IF($C2&lt;29,IF($C2&gt;28,$E2,""),"")</f>
+        <f>IF($C2&lt;28,IF($C2&gt;27,C2-I2,""),"")</f>
         <v/>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G65" si="2">IF($C2&lt;27,IF($C2&gt;26,$E2,""),"")</f>
+        <f>IF($C2&lt;26,IF($C2&gt;25,C2-I2,""),"")</f>
         <v/>
       </c>
       <c r="I2" s="1">
@@ -5611,7 +5614,7 @@
         <v>-0.36966853148969747</v>
       </c>
       <c r="L2" s="5" t="str">
-        <f t="shared" ref="L2:L4" si="3">IF(C2&gt;=28,"Y","")</f>
+        <f t="shared" ref="L2:L4" si="1">IF(C2&gt;=28,"Y","")</f>
         <v/>
       </c>
       <c r="M2" s="5" t="str">
@@ -5641,11 +5644,11 @@
         <v>0.10999999999999943</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F3:F66" si="2">IF($C3&lt;28,IF($C3&gt;27,C3-I3,""),"")</f>
         <v/>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G3:G66" si="3">IF($C3&lt;26,IF($C3&gt;25,C3-I3,""),"")</f>
         <v/>
       </c>
       <c r="I3" s="1">
@@ -5657,7 +5660,7 @@
         <v>0.87104605003298552</v>
       </c>
       <c r="L3" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M3" s="5" t="str">
@@ -5687,12 +5690,12 @@
         <v>0.48999999999999844</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G4" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7152561617997186</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="4"/>
@@ -5703,7 +5706,7 @@
         <v>1.2252561617997202</v>
       </c>
       <c r="L4" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M4" s="5" t="str">
@@ -5732,12 +5735,12 @@
         <f t="shared" si="0"/>
         <v>1.8900000000000006</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8900000000000006</v>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I5" s="1">
@@ -5779,11 +5782,11 @@
         <v>2.16</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I6" s="1">
@@ -5825,11 +5828,11 @@
         <v>1.0799999999999983</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I7" s="1">
@@ -5871,11 +5874,11 @@
         <v>1.0700000000000003</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I8" s="1">
@@ -5917,11 +5920,11 @@
         <v>1.6500000000000004</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I9" s="1">
@@ -5963,11 +5966,11 @@
         <v>1.6300000000000026</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I10" s="1">
@@ -6009,11 +6012,11 @@
         <v>2.3199999999999967</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I11" s="1">
@@ -6055,11 +6058,11 @@
         <v>1.7100000000000009</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" s="1">
@@ -6100,12 +6103,12 @@
         <f t="shared" si="0"/>
         <v>1.2799999999999976</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8939994532014452</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I13" s="1">
@@ -6147,11 +6150,11 @@
         <v>0.79999999999999716</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" s="1">
@@ -6193,11 +6196,11 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="1">
@@ -6239,11 +6242,11 @@
         <v>1.759999999999998</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I16" s="1">
@@ -6285,11 +6288,11 @@
         <v>0.26999999999999957</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" s="1">
@@ -6330,12 +6333,12 @@
         <f t="shared" si="0"/>
         <v>1.9599999999999973</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8899917560848145</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I18" s="1">
@@ -6377,12 +6380,12 @@
         <v>2.0300000000000011</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>2.0300000000000011</v>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
@@ -6422,12 +6425,12 @@
         <f t="shared" si="0"/>
         <v>2.4799999999999969</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4799999999999969</v>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I20" s="1">
@@ -6468,12 +6471,12 @@
         <f t="shared" si="0"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5199999999999996</v>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" s="1">
@@ -6515,11 +6518,11 @@
         <v>2.2100000000000009</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" s="1">
@@ -6561,11 +6564,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I23" s="1">
@@ -6607,11 +6610,11 @@
         <v>1.8500000000000014</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I24" s="1">
@@ -6653,12 +6656,12 @@
         <v>2.009999999999998</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="1">
         <f t="shared" si="2"/>
-        <v>2.009999999999998</v>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
@@ -6699,11 +6702,11 @@
         <v>1.620000000000001</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I26" s="1">
@@ -6745,11 +6748,11 @@
         <v>1.8500000000000014</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I27" s="1">
@@ -6790,12 +6793,12 @@
         <f t="shared" si="0"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8811748224282283</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I28" s="1">
@@ -6837,11 +6840,11 @@
         <v>1.1999999999999993</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" s="1">
@@ -6883,12 +6886,12 @@
         <v>1.5700000000000003</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="1">
         <f t="shared" si="2"/>
-        <v>1.5700000000000003</v>
+        <v/>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="4"/>
@@ -6929,11 +6932,11 @@
         <v>1.5700000000000003</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I31" s="1">
@@ -6974,12 +6977,12 @@
         <f t="shared" si="0"/>
         <v>2.2699999999999996</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9004117685880573</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I32" s="1">
@@ -7003,7 +7006,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20141018</v>
       </c>
@@ -7020,12 +7023,12 @@
         <f t="shared" si="0"/>
         <v>1.9400000000000013</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8675486522316831</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" s="1">
@@ -7049,7 +7052,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20141019</v>
       </c>
@@ -7067,11 +7070,11 @@
         <v>2.120000000000001</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I34" s="1">
@@ -7095,7 +7098,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20141019</v>
       </c>
@@ -7113,11 +7116,11 @@
         <v>2.1099999999999994</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I35" s="1">
@@ -7141,7 +7144,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20141020</v>
       </c>
@@ -7159,11 +7162,11 @@
         <v>1.1800000000000033</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I36" s="1">
@@ -7187,7 +7190,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20141020</v>
       </c>
@@ -7205,11 +7208,11 @@
         <v>2.0599999999999987</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I37" s="1">
@@ -7233,7 +7236,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20141021</v>
       </c>
@@ -7251,11 +7254,11 @@
         <v>2.2300000000000004</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I38" s="1">
@@ -7279,7 +7282,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20141021</v>
       </c>
@@ -7297,11 +7300,11 @@
         <v>2.5500000000000007</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I39" s="1">
@@ -7325,7 +7328,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20141022</v>
       </c>
@@ -7343,12 +7346,12 @@
         <v>0.83999999999999986</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7048361492964794</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="4"/>
@@ -7371,7 +7374,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20141022</v>
       </c>
@@ -7389,11 +7392,11 @@
         <v>0.15000000000000213</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I41" s="1">
@@ -7417,7 +7420,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20141023</v>
       </c>
@@ -7435,11 +7438,11 @@
         <v>2.2800000000000011</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" s="1">
@@ -7463,7 +7466,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20141023</v>
       </c>
@@ -7480,12 +7483,12 @@
         <f t="shared" si="9"/>
         <v>1.4000000000000021</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000021</v>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" s="1">
@@ -7509,7 +7512,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20151003</v>
       </c>
@@ -7527,11 +7530,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" s="1">
@@ -7555,7 +7558,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20151004</v>
       </c>
@@ -7573,12 +7576,12 @@
         <v>0.28999999999999915</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7561346723893507</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="4"/>
@@ -7601,7 +7604,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20151004</v>
       </c>
@@ -7619,11 +7622,11 @@
         <v>1.9800000000000004</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I46" s="1">
@@ -7647,7 +7650,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20151005</v>
       </c>
@@ -7664,12 +7667,12 @@
         <f t="shared" si="9"/>
         <v>2.2699999999999996</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2699999999999996</v>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I47" s="1">
@@ -7693,7 +7696,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20151005</v>
       </c>
@@ -7710,12 +7713,12 @@
         <f t="shared" si="9"/>
         <v>1.3200000000000003</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8859840589681838</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I48" s="1">
@@ -7745,10 +7748,28 @@
         <v>28</v>
       </c>
       <c r="S48" s="1">
+        <v>27</v>
+      </c>
+      <c r="T48" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U48" s="1">
+        <v>25</v>
+      </c>
+      <c r="V48" s="1">
+        <v>24</v>
+      </c>
+      <c r="W48" s="1">
+        <v>23</v>
+      </c>
+      <c r="X48" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20151006</v>
       </c>
@@ -7766,11 +7787,11 @@
         <v>0.87999999999999901</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I49" s="1">
@@ -7802,10 +7823,34 @@
       </c>
       <c r="S49" s="2">
         <f>FORECAST(S48,$D2:$D117,$C2:$C117)</f>
+        <v>25.156497530468101</v>
+      </c>
+      <c r="T49" s="2">
+        <f>FORECAST(T48,$D2:$D117,$C2:$C117)</f>
         <v>24.236651472800713</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U49" s="2">
+        <f>FORECAST(U48,$D2:$D117,$C2:$C117)</f>
+        <v>23.316805415133324</v>
+      </c>
+      <c r="V49" s="2">
+        <f>FORECAST(V48,$D2:$D117,$C2:$C117)</f>
+        <v>22.396959357465938</v>
+      </c>
+      <c r="W49" s="2">
+        <f>FORECAST(W48,$D2:$D117,$C2:$C117)</f>
+        <v>21.477113299798553</v>
+      </c>
+      <c r="X49" s="2">
+        <f>FORECAST(X48,$D2:$D117,$C2:$C117)</f>
+        <v>20.557267242131164</v>
+      </c>
+      <c r="Y49" s="2">
+        <f>FORECAST(Y48,$D2:$D117,$C2:$C117)</f>
+        <v>19.637421184463776</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20151006</v>
       </c>
@@ -7823,11 +7868,11 @@
         <v>1.4299999999999997</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I50" s="1">
@@ -7851,7 +7896,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20151007</v>
       </c>
@@ -7869,11 +7914,11 @@
         <v>3.1099999999999994</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="1">
@@ -7897,7 +7942,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20151007</v>
       </c>
@@ -7915,11 +7960,11 @@
         <v>0.91000000000000014</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="1">
@@ -7943,7 +7988,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20161008</v>
       </c>
@@ -7961,11 +8006,11 @@
         <v>0.98000000000000043</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I53" s="1">
@@ -7989,7 +8034,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20161009</v>
       </c>
@@ -8007,11 +8052,11 @@
         <v>2.370000000000001</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="1">
@@ -8035,7 +8080,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20161009</v>
       </c>
@@ -8053,11 +8098,11 @@
         <v>2.2300000000000004</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I55" s="1">
@@ -8081,7 +8126,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20161010</v>
       </c>
@@ -8099,11 +8144,11 @@
         <v>0.42999999999999972</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I56" s="1">
@@ -8127,7 +8172,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20161011</v>
       </c>
@@ -8145,12 +8190,12 @@
         <v>2.41</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="3"/>
+        <v>1.701629991603177</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="4"/>
@@ -8173,7 +8218,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20161011</v>
       </c>
@@ -8191,12 +8236,12 @@
         <v>2.09</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7304854108429168</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="4"/>
@@ -8219,7 +8264,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20161012</v>
       </c>
@@ -8236,12 +8281,12 @@
         <f t="shared" si="9"/>
         <v>2.2000000000000028</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9060225445513375</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I59" s="1">
@@ -8265,7 +8310,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20161012</v>
       </c>
@@ -8283,12 +8328,12 @@
         <v>2.4600000000000009</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G60" s="1">
         <f t="shared" si="2"/>
-        <v>2.4600000000000009</v>
+        <v/>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="4"/>
@@ -8311,7 +8356,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20161013</v>
       </c>
@@ -8328,12 +8373,12 @@
         <f t="shared" si="9"/>
         <v>3.3200000000000003</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8595332579984216</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I61" s="1">
@@ -8357,7 +8402,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20161013</v>
       </c>
@@ -8374,12 +8419,12 @@
         <f t="shared" si="9"/>
         <v>1.7899999999999991</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7899999999999991</v>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I62" s="1">
@@ -8403,7 +8448,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20161014</v>
       </c>
@@ -8421,12 +8466,12 @@
         <v>1.1499999999999986</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G63" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6960192156398932</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="4"/>
@@ -8449,7 +8494,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20171015</v>
       </c>
@@ -8467,12 +8512,12 @@
         <v>2.0599999999999987</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G64" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7160577012230469</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="4"/>
@@ -8513,11 +8558,11 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I65" s="1">
@@ -8559,11 +8604,11 @@
         <v>2.7399999999999984</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F116" si="11">IF($C66&lt;29,IF($C66&gt;28,$E66,""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G116" si="12">IF($C66&lt;27,IF($C66&gt;26,$E66,""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I66" s="1">
@@ -8605,11 +8650,11 @@
         <v>1.6000000000000014</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F67:F117" si="11">IF($C67&lt;28,IF($C67&gt;27,C67-I67,""),"")</f>
         <v/>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G67:G117" si="12">IF($C67&lt;26,IF($C67&gt;25,C67-I67,""),"")</f>
         <v/>
       </c>
       <c r="I67" s="1">
@@ -8650,9 +8695,9 @@
         <f t="shared" si="10"/>
         <v>1.9299999999999997</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>1.9299999999999997</v>
+        <v/>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="12"/>
@@ -8930,9 +8975,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G74" s="1" t="str">
+      <c r="G74" s="1">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1.7296838714195886</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="13"/>
@@ -9022,9 +9067,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>2.1699999999999982</v>
+        <v/>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="13"/>
@@ -9156,9 +9201,9 @@
         <f t="shared" si="10"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>2.5199999999999996</v>
+        <v/>
       </c>
       <c r="G79" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10126,9 +10171,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>1.9299999999999997</v>
+        <v/>
       </c>
       <c r="I100" s="1">
         <f t="shared" si="13"/>
@@ -10172,9 +10217,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G101" s="1" t="str">
+      <c r="G101" s="1">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1.7449131204627868</v>
       </c>
       <c r="I101" s="1">
         <f t="shared" si="13"/>
@@ -10260,9 +10305,9 @@
         <f t="shared" si="18"/>
         <v>1.629999999999999</v>
       </c>
-      <c r="F103" s="1" t="str">
+      <c r="F103" s="1">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1.9020148474347067</v>
       </c>
       <c r="G103" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10586,9 +10631,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G110" s="1" t="str">
+      <c r="G110" s="1">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1.683996124290001</v>
       </c>
       <c r="I110" s="1">
         <f t="shared" si="13"/>
@@ -10678,9 +10723,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>1.0599999999999987</v>
+        <v/>
       </c>
       <c r="I112" s="1">
         <f t="shared" si="13"/>
@@ -10720,9 +10765,9 @@
         <f t="shared" si="19"/>
         <v>1.1600000000000001</v>
       </c>
-      <c r="F113" s="1" t="str">
+      <c r="F113" s="1">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1.8915948349314675</v>
       </c>
       <c r="G113" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10770,9 +10815,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>2.5800000000000018</v>
+        <v/>
       </c>
       <c r="I114" s="1">
         <f t="shared" si="13"/>
@@ -10905,11 +10950,11 @@
         <v>2.3300000000000018</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>IF($C117&lt;29,IF($C117&gt;28,$E117,""),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G117" s="1" t="str">
-        <f>IF($C117&lt;27,IF($C117&gt;26,$E117,""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I117" s="1">
@@ -10941,8 +10986,12 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+      <c r="A119" t="s">
         <v>8</v>
+      </c>
+      <c r="B119" s="4">
+        <f>SUM(B$2:B$117)</f>
+        <v>1784</v>
       </c>
       <c r="E119" s="4">
         <f>COUNT(E$2:E$117)</f>
@@ -10950,11 +10999,11 @@
       </c>
       <c r="F119" s="4">
         <f t="shared" ref="F119:I119" si="20">COUNT(F$2:F$117)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4">
@@ -10989,11 +11038,11 @@
       </c>
       <c r="F121" s="9">
         <f>MIN(F$2:F$117)</f>
-        <v>1.4000000000000021</v>
+        <v>1.8595332579984216</v>
       </c>
       <c r="G121" s="9">
         <f>MIN(G$2:G$117)</f>
-        <v>1.0599999999999987</v>
+        <v>1.683996124290001</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="9">
@@ -11018,11 +11067,11 @@
       </c>
       <c r="F122" s="10">
         <f>MEDIAN(F$2:F$117)</f>
-        <v>2.0999999999999996</v>
+        <v>1.890793295508141</v>
       </c>
       <c r="G122" s="10">
         <f>MEDIAN(G$2:G$117)</f>
-        <v>2.0199999999999996</v>
+        <v>1.7156569315113828</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="9">
@@ -11044,11 +11093,11 @@
       </c>
       <c r="F123" s="10">
         <f>AVERAGE(F$2:F$117)</f>
-        <v>2.0999999999999996</v>
+        <v>1.8878275996418346</v>
       </c>
       <c r="G123" s="10">
         <f>AVERAGE(G$2:G$117)</f>
-        <v>1.9762499999999998</v>
+        <v>1.7179012418966959</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="9">
@@ -11070,11 +11119,11 @@
       </c>
       <c r="F124" s="9">
         <f>MAX(F$2:F$117)</f>
-        <v>2.5199999999999996</v>
+        <v>1.9060225445513375</v>
       </c>
       <c r="G124" s="9">
         <f>MAX(G$2:G$117)</f>
-        <v>2.5800000000000018</v>
+        <v>1.7561346723893507</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="9">
@@ -11083,6 +11132,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G117" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:N117">
     <sortCondition ref="A98:A117"/>
   </sortState>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB910AE-2035-459C-A137-6F47EAFC697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3AF855-EF60-4D54-955E-1CE60877740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -240,7 +240,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>50th percentile (median) vs 25th percentile</a:t>
+              <a:t>50th percentile vs 25th percentile</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5528,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7818,35 +7818,35 @@
         <v>13</v>
       </c>
       <c r="R49" s="2">
-        <f>FORECAST(R48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" ref="R49:Y49" si="10">FORECAST(R48,$D2:$D117,$C2:$C117)</f>
         <v>26.076343588135487</v>
       </c>
       <c r="S49" s="2">
-        <f>FORECAST(S48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>25.156497530468101</v>
       </c>
       <c r="T49" s="2">
-        <f>FORECAST(T48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>24.236651472800713</v>
       </c>
       <c r="U49" s="2">
-        <f>FORECAST(U48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>23.316805415133324</v>
       </c>
       <c r="V49" s="2">
-        <f>FORECAST(V48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>22.396959357465938</v>
       </c>
       <c r="W49" s="2">
-        <f>FORECAST(W48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>21.477113299798553</v>
       </c>
       <c r="X49" s="2">
-        <f>FORECAST(X48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>20.557267242131164</v>
       </c>
       <c r="Y49" s="2">
-        <f>FORECAST(Y48,$D2:$D117,$C2:$C117)</f>
+        <f t="shared" si="10"/>
         <v>19.637421184463776</v>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
         <v>30.94</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E97" si="10">C66-D66</f>
+        <f t="shared" ref="E66:E97" si="11">C66-D66</f>
         <v>2.7399999999999984</v>
       </c>
       <c r="F66" s="1" t="str">
@@ -8646,23 +8646,23 @@
         <v>19.38</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6000000000000014</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F117" si="11">IF($C67&lt;28,IF($C67&gt;27,C67-I67,""),"")</f>
+        <f t="shared" ref="F67:F117" si="12">IF($C67&lt;28,IF($C67&gt;27,C67-I67,""),"")</f>
         <v/>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G117" si="12">IF($C67&lt;26,IF($C67&gt;25,C67-I67,""),"")</f>
+        <f t="shared" ref="G67:G117" si="13">IF($C67&lt;26,IF($C67&gt;25,C67-I67,""),"")</f>
         <v/>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I117" si="13">FORECAST(C67,$D$2:$D$117,$C$2:$C$117)</f>
+        <f t="shared" ref="I67:I117" si="14">FORECAST(C67,$D$2:$D$117,$C$2:$C$117)</f>
         <v>19.619024263310429</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J117" si="14">D67-I67</f>
+        <f t="shared" ref="J67:J117" si="15">D67-I67</f>
         <v>-0.23902426331043003</v>
       </c>
       <c r="L67" s="5" t="str">
@@ -8670,11 +8670,11 @@
         <v/>
       </c>
       <c r="M67" s="5" t="str">
-        <f t="shared" ref="M67:M117" si="15">IF(D67&gt;=26,"Y","")</f>
+        <f t="shared" ref="M67:M117" si="16">IF(D67&gt;=26,"Y","")</f>
         <v/>
       </c>
       <c r="N67" s="5" t="str">
-        <f t="shared" ref="N67:N117" si="16">IF(L67&lt;&gt;M67,"Y","")</f>
+        <f t="shared" ref="N67:N117" si="17">IF(L67&lt;&gt;M67,"Y","")</f>
         <v/>
       </c>
     </row>
@@ -8692,23 +8692,23 @@
         <v>26.73</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9299999999999997</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26.683441986195962</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.6558013804038012E-2</v>
       </c>
       <c r="L68" s="5" t="str">
@@ -8716,11 +8716,11 @@
         <v>Y</v>
       </c>
       <c r="M68" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N68" s="5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -8738,23 +8738,23 @@
         <v>21.99</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.548068781554488</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4419312184455109</v>
       </c>
       <c r="L69" s="5" t="str">
@@ -8762,11 +8762,11 @@
         <v/>
       </c>
       <c r="M69" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N69" s="5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -8784,35 +8784,35 @@
         <v>30.81</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.41</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.797786066826632</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.98778606682663295</v>
       </c>
       <c r="L70" s="5" t="str">
-        <f t="shared" ref="L70:L117" si="17">IF(C70&gt;=28,"Y","")</f>
+        <f t="shared" ref="L70:L117" si="18">IF(C70&gt;=28,"Y","")</f>
         <v>Y</v>
       </c>
       <c r="M70" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="N70" s="5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -8830,35 +8830,35 @@
         <v>27.87</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2099999999999973</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.98962338808365</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.11962338808364947</v>
       </c>
       <c r="L71" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M71" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N71" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M71" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N71" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -8876,35 +8876,35 @@
         <v>26.11</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1400000000000006</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.226151160219722</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.1161511602197223</v>
       </c>
       <c r="L72" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M72" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N72" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M72" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N72" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -8922,35 +8922,35 @@
         <v>28.12</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.129999999999999</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.145997217887107</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.5997217887105961E-2</v>
       </c>
       <c r="L73" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M73" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N73" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M73" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N73" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -8968,35 +8968,35 @@
         <v>24.05</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5299999999999976</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7296838714195886</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.85031612858041</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19968387141959099</v>
       </c>
       <c r="L74" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M74" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N74" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M74" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N74" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9014,35 +9014,35 @@
         <v>28.83</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5500000000000007</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.265577205383867</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.56442279461613154</v>
       </c>
       <c r="L75" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M75" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N75" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M75" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N75" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9060,35 +9060,35 @@
         <v>24.17</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1699999999999982</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.549399132407626</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.3793991324076238</v>
       </c>
       <c r="L76" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M76" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N76" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M76" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N76" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9106,35 +9106,35 @@
         <v>13.06</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.333843486584724</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.72615651341527609</v>
       </c>
       <c r="L77" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M77" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N77" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M77" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N77" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9152,35 +9152,35 @@
         <v>22.28</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.102608619012376</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.17739138098762552</v>
       </c>
       <c r="L78" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M78" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N78" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M78" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N78" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9198,35 +9198,35 @@
         <v>26.1</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5199999999999996</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26.646648143889266</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.5466481438892643</v>
       </c>
       <c r="L79" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M79" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N79" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M79" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N79" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9244,35 +9244,35 @@
         <v>17.579999999999998</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0300000000000011</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.358835164306107</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.77883516430610911</v>
       </c>
       <c r="L80" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M80" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N80" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M80" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N80" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9290,35 +9290,35 @@
         <v>29.98</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2199999999999989</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29.019850972671126</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.96014902732887464</v>
       </c>
       <c r="L81" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M81" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N81" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M81" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N81" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9336,35 +9336,35 @@
         <v>29</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.3943556534573</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.60564434654270016</v>
       </c>
       <c r="L82" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M82" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N82" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M82" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N82" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9382,35 +9382,35 @@
         <v>31.64</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3500000000000014</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.586221473563135</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.3778526436865093E-2</v>
       </c>
       <c r="L83" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M83" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N83" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M83" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N83" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9428,35 +9428,35 @@
         <v>31.82</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7299999999999969</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.181489208189483</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.63851079181051773</v>
       </c>
       <c r="L84" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M84" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N84" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M84" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N84" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9474,35 +9474,35 @@
         <v>30.18</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0300000000000011</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29.948895490915188</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23110450908481184</v>
       </c>
       <c r="L85" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M85" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N85" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M85" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N85" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9520,35 +9520,35 @@
         <v>29.46</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9800000000000004</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29.240614026511299</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21938597348870204</v>
       </c>
       <c r="L86" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M86" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N86" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M86" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N86" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9566,35 +9566,35 @@
         <v>29.25</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6400000000000006</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.734698694794236</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.51530130520576378</v>
       </c>
       <c r="L87" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M87" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N87" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M87" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N87" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9612,35 +9612,35 @@
         <v>31.74</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0199999999999996</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.454810822632247</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2851891773677515</v>
       </c>
       <c r="L88" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M88" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N88" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M88" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N88" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9658,35 +9658,35 @@
         <v>30.5</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3200000000000003</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29.590155528424905</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90984447157509507</v>
       </c>
       <c r="L89" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M89" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N89" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M89" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N89" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9704,35 +9704,35 @@
         <v>29.86</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.759999999999998</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.326032374558814</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.46603237455881441</v>
       </c>
       <c r="L90" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M90" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N90" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M90" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N90" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9750,35 +9750,35 @@
         <v>33.46</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9299999999999997</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.793852011964866</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.33385201196486491</v>
       </c>
       <c r="L91" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M91" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N91" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M91" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N91" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9796,35 +9796,35 @@
         <v>32.950000000000003</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.519999999999996</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.947593638910867</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4063610891360554E-3</v>
       </c>
       <c r="L92" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M92" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N92" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M92" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N92" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9842,35 +9842,35 @@
         <v>21.35</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4599999999999973</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.222188606509135</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.87218860650913399</v>
       </c>
       <c r="L93" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M93" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N93" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M93" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N93" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9888,35 +9888,35 @@
         <v>20.170000000000002</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7099999999999973</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.446885715211078</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.27688571521107619</v>
       </c>
       <c r="L94" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M94" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N94" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M94" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N94" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9934,35 +9934,35 @@
         <v>19.87</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.75</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.047417855552332</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.1774178555523314</v>
       </c>
       <c r="L95" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M95" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N95" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M95" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N95" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9980,35 +9980,35 @@
         <v>18.77</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19.425856591200279</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.65585659120027984</v>
       </c>
       <c r="L96" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M96" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N96" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M96" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N96" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10026,35 +10026,35 @@
         <v>18.25</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.57</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.311541009418423</v>
       </c>
       <c r="J97" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.0615410094184234</v>
       </c>
       <c r="L97" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M97" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N97" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M97" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N97" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10072,35 +10072,35 @@
         <v>26.94</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" ref="E98:E108" si="18">C98-D98</f>
+        <f t="shared" ref="E98:E108" si="19">C98-D98</f>
         <v>3.2799999999999976</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.118401836157084</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.1784018361570823</v>
       </c>
       <c r="L98" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M98" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N98" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M98" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N98" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10118,35 +10118,35 @@
         <v>29.89</v>
       </c>
       <c r="E99" s="1">
+        <f t="shared" si="19"/>
+        <v>2.09</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="14"/>
+        <v>29.737330897651688</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="15"/>
+        <v>0.15266910234831244</v>
+      </c>
+      <c r="L99" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>2.09</v>
-      </c>
-      <c r="F99" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G99" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I99" s="1">
-        <f t="shared" si="13"/>
-        <v>29.737330897651688</v>
-      </c>
-      <c r="J99" s="1">
-        <f t="shared" si="14"/>
-        <v>0.15266910234831244</v>
-      </c>
-      <c r="L99" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M99" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N99" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M99" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N99" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10164,35 +10164,35 @@
         <v>24.91</v>
       </c>
       <c r="E100" s="1">
+        <f t="shared" si="19"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="14"/>
+        <v>25.009322161241318</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="15"/>
+        <v>-9.9322161241317986E-2</v>
+      </c>
+      <c r="L100" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="F100" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G100" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I100" s="1">
-        <f t="shared" si="13"/>
-        <v>25.009322161241318</v>
-      </c>
-      <c r="J100" s="1">
-        <f t="shared" si="14"/>
-        <v>-9.9322161241317986E-2</v>
-      </c>
-      <c r="L100" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M100" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N100" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M100" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N100" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10210,35 +10210,35 @@
         <v>24.63</v>
       </c>
       <c r="E101" s="1">
+        <f t="shared" si="19"/>
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="13"/>
+        <v>1.7449131204627868</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="14"/>
+        <v>24.025086879537213</v>
+      </c>
+      <c r="J101" s="1">
+        <f t="shared" si="15"/>
+        <v>0.60491312046278622</v>
+      </c>
+      <c r="L101" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>1.1400000000000006</v>
-      </c>
-      <c r="F101" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7449131204627868</v>
-      </c>
-      <c r="I101" s="1">
-        <f t="shared" si="13"/>
-        <v>24.025086879537213</v>
-      </c>
-      <c r="J101" s="1">
-        <f t="shared" si="14"/>
-        <v>0.60491312046278622</v>
-      </c>
-      <c r="L101" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M101" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N101" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M101" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N101" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10256,35 +10256,35 @@
         <v>22.76</v>
       </c>
       <c r="E102" s="1">
+        <f t="shared" si="19"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="14"/>
+        <v>21.63348712960201</v>
+      </c>
+      <c r="J102" s="1">
+        <f t="shared" si="15"/>
+        <v>1.1265128703979919</v>
+      </c>
+      <c r="L102" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>0.41000000000000014</v>
-      </c>
-      <c r="F102" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G102" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I102" s="1">
-        <f t="shared" si="13"/>
-        <v>21.63348712960201</v>
-      </c>
-      <c r="J102" s="1">
-        <f t="shared" si="14"/>
-        <v>1.1265128703979919</v>
-      </c>
-      <c r="L102" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M102" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N102" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M102" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N102" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10302,35 +10302,35 @@
         <v>26.1</v>
       </c>
       <c r="E103" s="1">
+        <f t="shared" si="19"/>
+        <v>1.629999999999999</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9020148474347067</v>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="14"/>
+        <v>25.827985152565294</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" si="15"/>
+        <v>0.27201484743470772</v>
+      </c>
+      <c r="L103" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>1.629999999999999</v>
-      </c>
-      <c r="F103" s="1">
-        <f t="shared" si="11"/>
-        <v>1.9020148474347067</v>
-      </c>
-      <c r="G103" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I103" s="1">
-        <f t="shared" si="13"/>
-        <v>25.827985152565294</v>
-      </c>
-      <c r="J103" s="1">
-        <f t="shared" si="14"/>
-        <v>0.27201484743470772</v>
-      </c>
-      <c r="L103" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M103" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N103" s="7" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M103" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N103" s="7" t="str">
-        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
     </row>
@@ -10348,35 +10348,35 @@
         <v>24.05</v>
       </c>
       <c r="E104" s="1">
+        <f t="shared" si="19"/>
+        <v>6.5</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="14"/>
+        <v>28.421951035187323</v>
+      </c>
+      <c r="J104" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.3719510351873225</v>
+      </c>
+      <c r="L104" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="F104" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G104" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I104" s="1">
-        <f t="shared" si="13"/>
-        <v>28.421951035187323</v>
-      </c>
-      <c r="J104" s="1">
-        <f t="shared" si="14"/>
-        <v>-4.3719510351873225</v>
-      </c>
-      <c r="L104" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M104" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N104" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M104" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N104" s="8" t="str">
-        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
     </row>
@@ -10394,35 +10394,35 @@
         <v>26.64</v>
       </c>
       <c r="E105" s="1">
+        <f t="shared" si="19"/>
+        <v>3.2100000000000009</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="14"/>
+        <v>27.778058794820154</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.1380587948201537</v>
+      </c>
+      <c r="L105" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>3.2100000000000009</v>
-      </c>
-      <c r="F105" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G105" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I105" s="1">
-        <f t="shared" si="13"/>
-        <v>27.778058794820154</v>
-      </c>
-      <c r="J105" s="1">
-        <f t="shared" si="14"/>
-        <v>-1.1380587948201537</v>
-      </c>
-      <c r="L105" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M105" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N105" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M105" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N105" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10440,35 +10440,35 @@
         <v>27.46</v>
       </c>
       <c r="E106" s="1">
+        <f t="shared" si="19"/>
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="14"/>
+        <v>29.010652512094453</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.5506525120944517</v>
+      </c>
+      <c r="L106" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>3.7300000000000004</v>
-      </c>
-      <c r="F106" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G106" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I106" s="1">
-        <f t="shared" si="13"/>
-        <v>29.010652512094453</v>
-      </c>
-      <c r="J106" s="1">
-        <f t="shared" si="14"/>
-        <v>-1.5506525120944517</v>
-      </c>
-      <c r="L106" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M106" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N106" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M106" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N106" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10486,35 +10486,35 @@
         <v>28.89</v>
       </c>
       <c r="E107" s="1">
+        <f t="shared" si="19"/>
+        <v>3.009999999999998</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="14"/>
+        <v>29.663743213038295</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.77374321303829419</v>
+      </c>
+      <c r="L107" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>3.009999999999998</v>
-      </c>
-      <c r="F107" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G107" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I107" s="1">
-        <f t="shared" si="13"/>
-        <v>29.663743213038295</v>
-      </c>
-      <c r="J107" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.77374321303829419</v>
-      </c>
-      <c r="L107" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="M107" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N107" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M107" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N107" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10532,35 +10532,35 @@
         <v>21.88</v>
       </c>
       <c r="E108" s="1">
+        <f t="shared" si="19"/>
+        <v>0.92000000000000171</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="14"/>
+        <v>21.293144088265073</v>
+      </c>
+      <c r="J108" s="1">
+        <f t="shared" si="15"/>
+        <v>0.58685591173492568</v>
+      </c>
+      <c r="L108" s="5" t="str">
         <f t="shared" si="18"/>
-        <v>0.92000000000000171</v>
-      </c>
-      <c r="F108" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G108" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I108" s="1">
-        <f t="shared" si="13"/>
-        <v>21.293144088265073</v>
-      </c>
-      <c r="J108" s="1">
-        <f t="shared" si="14"/>
-        <v>0.58685591173492568</v>
-      </c>
-      <c r="L108" s="5" t="str">
+        <v/>
+      </c>
+      <c r="M108" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N108" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M108" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N108" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10578,35 +10578,35 @@
         <v>22.05</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" ref="E109:E117" si="19">C109-D109</f>
+        <f t="shared" ref="E109:E117" si="20">C109-D109</f>
         <v>1.1699999999999982</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.679479432485376</v>
       </c>
       <c r="J109" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.37052056751462459</v>
       </c>
       <c r="L109" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M109" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N109" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M109" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N109" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10624,35 +10624,35 @@
         <v>24.15</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.86000000000000298</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.683996124290001</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.326003875710001</v>
       </c>
       <c r="J110" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.82399612428999802</v>
       </c>
       <c r="L110" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M110" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N110" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M110" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N110" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10670,35 +10670,35 @@
         <v>22.61</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I111" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.286577830545852</v>
       </c>
       <c r="J111" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32342216945414748</v>
       </c>
       <c r="L111" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M111" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N111" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M111" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N111" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10716,35 +10716,35 @@
         <v>25.66</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0599999999999987</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G112" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.898940634321232</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.76105936567876853</v>
       </c>
       <c r="L112" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M112" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N112" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M112" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N112" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10762,35 +10762,35 @@
         <v>26.44</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8915948349314675</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I113" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.708405165068534</v>
       </c>
       <c r="J113" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.73159483493146737</v>
       </c>
       <c r="L113" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M113" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N113" s="7" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M113" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N113" s="7" t="str">
-        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
     </row>
@@ -10808,35 +10808,35 @@
         <v>24.11</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5800000000000018</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G114" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I114" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.871345252591212</v>
       </c>
       <c r="J114" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.76134525259121233</v>
       </c>
       <c r="L114" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M114" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N114" s="5" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M114" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N114" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10854,35 +10854,35 @@
         <v>27.13</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9499999999999993</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G115" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I115" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.069777330416262</v>
       </c>
       <c r="J115" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.0222669583737343E-2</v>
       </c>
       <c r="L115" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M115" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N115" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M115" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N115" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10900,35 +10900,35 @@
         <v>29.74</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.909469445751036</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.83053055424896272</v>
       </c>
       <c r="L116" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M116" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N116" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M116" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N116" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10946,35 +10946,35 @@
         <v>30.06</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3300000000000018</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.114467781295318</v>
       </c>
       <c r="J117" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-5.4467781295318929E-2</v>
       </c>
       <c r="L117" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Y</v>
+      </c>
+      <c r="M117" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
+      <c r="N117" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>Y</v>
-      </c>
-      <c r="M117" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>Y</v>
-      </c>
-      <c r="N117" s="5" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -10998,16 +10998,16 @@
         <v>116</v>
       </c>
       <c r="F119" s="4">
-        <f t="shared" ref="F119:I119" si="20">COUNT(F$2:F$117)</f>
+        <f t="shared" ref="F119:I119" si="21">COUNT(F$2:F$117)</f>
         <v>10</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>116</v>
       </c>
       <c r="J119" s="4"/>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3AF855-EF60-4D54-955E-1CE60877740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E297EC-12FA-4F30-9052-8137B0C04C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -2185,8 +2185,8 @@
         <c:axId val="1231959152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="29"/>
-          <c:min val="27"/>
+          <c:max val="28"/>
+          <c:min val="26"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2305,8 +2305,8 @@
         <c:axId val="1230299248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="27"/>
-          <c:min val="25"/>
+          <c:max val="26"/>
+          <c:min val="24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5528,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E297EC-12FA-4F30-9052-8137B0C04C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504CC08-34C9-49E4-9C9E-84361A9724B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -17,6 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$117</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$124</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$124</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$124</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$124</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$2:$D$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3455,6 +3465,146 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Median Times for UKWA - 2010 to 2023</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Median Times for UKWA - 2010 to 2023</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{0C3C6711-4380-4A2A-9B4F-25CBC4A6D851}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>median</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="12"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="0.0" sourceLinked="0"/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>25th Percentile for UKWA - 2010 to 2023</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>25th Percentile for UKWA - 2010 to 2023</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{0C3C6711-4380-4A2A-9B4F-25CBC4A6D851}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>25th percentile</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="12"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="0.0" sourceLinked="0"/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3575,6 +3725,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5106,6 +5336,1022 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5226,13 +6472,169 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1D035B-81A2-4CA4-9AFF-FD1488D4A96B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10801349" y="13525500"/>
+              <a:ext cx="6696075" cy="3695700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCEF1ED-E10B-471F-A37F-792DD58CD3C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10801350" y="17526000"/>
+              <a:ext cx="6696075" cy="3695700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5270,7 +6672,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5376,7 +6778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5518,7 +6920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5528,8 +6930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/ukwa/analysis/percentiles.xlsx
+++ b/resources/ukwa/analysis/percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504CC08-34C9-49E4-9C9E-84361A9724B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52451064-4A49-46B2-86B9-1A2EEFA310EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -21,12 +21,6 @@
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$124</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$124</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$124</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$124</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$2:$D$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -326,8 +320,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4241989478718323E-2"/>
+                  <c:y val="8.4399541121386971E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1462,8 +1492,44 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18406504065040649"/>
+                  <c:y val="2.0411520228647485E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3470,7 +3536,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3508,7 +3574,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{0C3C6711-4380-4A2A-9B4F-25CBC4A6D851}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>median</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6930,8 +6996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0D37A-FE3E-4993-BE94-996EF6CE4A41}">
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N92" sqref="N92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
